--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F2EC8B-92E2-4165-86FC-16C1DCEBE376}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="7900"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teuchtmann" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -104,10 +105,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -207,11 +208,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,7 +226,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -302,21 +303,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -586,40 +587,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="75.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>22</v>
       </c>
@@ -642,7 +643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -667,7 +668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -692,7 +693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -717,7 +718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
@@ -742,7 +743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="14" t="s">
         <v>2</v>
@@ -768,7 +769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
@@ -793,7 +794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
@@ -818,7 +819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>9</v>
       </c>
@@ -843,7 +844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>2</v>
       </c>
@@ -868,7 +869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
@@ -893,7 +894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>6</v>
       </c>
@@ -918,7 +919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
@@ -943,7 +944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -968,7 +969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="12"/>
@@ -983,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="12"/>
@@ -998,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="12"/>
@@ -1013,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="12"/>
@@ -1028,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="12"/>
@@ -1043,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="12"/>
@@ -1058,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="12"/>
@@ -1073,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="12"/>
@@ -1088,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
@@ -1103,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -1118,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1133,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1148,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1163,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1178,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1193,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1208,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1223,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1238,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1253,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1268,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1283,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1298,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1313,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1328,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1343,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>0</v>
       </c>
@@ -1356,13 +1357,13 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
@@ -1371,7 +1372,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1380,7 +1381,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1389,7 +1390,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1398,7 +1399,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1407,7 +1408,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1416,7 +1417,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1425,7 +1426,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1434,7 +1435,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1443,7 +1444,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1452,7 +1453,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
@@ -1461,7 +1462,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1470,7 +1471,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1479,7 +1480,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1488,7 +1489,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1497,7 +1498,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1506,7 +1507,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1515,7 +1516,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1524,7 +1525,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1533,7 +1534,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1542,7 +1543,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1551,7 +1552,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1560,7 +1561,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1569,7 +1570,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1578,7 +1579,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1587,7 +1588,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1596,7 +1597,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1605,7 +1606,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1614,7 +1615,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1623,7 +1624,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1632,7 +1633,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1641,7 +1642,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1650,7 +1651,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1659,7 +1660,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1668,7 +1669,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1677,7 +1678,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1686,7 +1687,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1695,7 +1696,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1704,7 +1705,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1713,7 +1714,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1722,7 +1723,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1731,7 +1732,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1740,7 +1741,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="2"/>
@@ -1749,7 +1750,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1758,7 +1759,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1767,7 +1768,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -1776,7 +1777,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1785,7 +1786,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1794,7 +1795,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1803,7 +1804,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1812,7 +1813,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1821,7 +1822,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1830,7 +1831,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1839,7 +1840,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1848,7 +1849,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1857,7 +1858,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1866,7 +1867,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1875,7 +1876,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1884,7 +1885,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1893,7 +1894,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1902,7 +1903,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1911,7 +1912,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1920,7 +1921,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1929,7 +1930,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1938,7 +1939,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1947,7 +1948,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1956,7 +1957,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1965,7 +1966,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -1974,7 +1975,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1983,7 +1984,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -1992,7 +1993,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2001,7 +2002,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2010,7 +2011,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2019,7 +2020,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2028,7 +2029,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2037,7 +2038,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2046,7 +2047,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2055,7 +2056,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2064,7 +2065,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2073,7 +2074,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2082,7 +2083,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2091,7 +2092,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2100,7 +2101,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2109,7 +2110,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2118,7 +2119,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2127,7 +2128,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2136,7 +2137,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2145,7 +2146,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="2"/>
@@ -2154,7 +2155,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2163,7 +2164,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2172,7 +2173,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
@@ -2181,7 +2182,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2190,7 +2191,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2199,7 +2200,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2208,7 +2209,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2217,7 +2218,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2226,7 +2227,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2235,7 +2236,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2244,7 +2245,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2253,7 +2254,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2262,7 +2263,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2271,7 +2272,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2280,7 +2281,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2289,7 +2290,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2298,7 +2299,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2307,7 +2308,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2316,7 +2317,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2325,7 +2326,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2334,7 +2335,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2343,7 +2344,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2352,7 +2353,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2361,7 +2362,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2370,7 +2371,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2379,7 +2380,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2388,7 +2389,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2397,7 +2398,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2406,7 +2407,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2415,7 +2416,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2424,7 +2425,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2433,7 +2434,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2442,7 +2443,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2451,7 +2452,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2460,7 +2461,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2469,7 +2470,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2478,7 +2479,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2487,7 +2488,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2496,7 +2497,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2505,7 +2506,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2514,7 +2515,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2523,7 +2524,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2532,7 +2533,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2541,7 +2542,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2550,7 +2551,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="2"/>
@@ -2559,7 +2560,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2568,7 +2569,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2577,7 +2578,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="6"/>
       <c r="C183" s="2"/>
@@ -2586,7 +2587,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2595,7 +2596,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2604,7 +2605,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2613,7 +2614,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2622,7 +2623,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2631,7 +2632,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2640,7 +2641,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2649,7 +2650,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2658,7 +2659,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2667,7 +2668,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2676,7 +2677,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2685,7 +2686,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2694,7 +2695,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2703,7 +2704,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2712,7 +2713,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2721,7 +2722,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2730,7 +2731,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2739,7 +2740,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2748,7 +2749,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2757,7 +2758,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2766,7 +2767,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2775,7 +2776,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2784,7 +2785,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2793,7 +2794,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2802,7 +2803,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2811,7 +2812,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2820,7 +2821,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2829,7 +2830,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2838,7 +2839,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2847,7 +2848,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2856,7 +2857,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2865,7 +2866,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2874,7 +2875,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2883,7 +2884,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -2892,7 +2893,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2901,7 +2902,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2910,7 +2911,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -2919,7 +2920,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -2928,7 +2929,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -2937,7 +2938,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -2946,25 +2947,25 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F2EC8B-92E2-4165-86FC-16C1DCEBE376}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="18270" windowHeight="7910"/>
   </bookViews>
   <sheets>
     <sheet name="Teuchtmann" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>GESAMT</t>
   </si>
@@ -101,14 +100,17 @@
   <si>
     <t>Zeiterfassung Software Engineering Praktikum (259035)</t>
   </si>
+  <si>
+    <t>Besprechung LVA Leiter Release I</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -208,11 +210,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,7 +228,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -303,21 +305,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H45"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -587,40 +589,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>22</v>
       </c>
@@ -643,7 +645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -668,7 +670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -693,7 +695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -718,7 +720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
@@ -743,7 +745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
       <c r="B11" s="14" t="s">
         <v>2</v>
@@ -769,7 +771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
@@ -794,7 +796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
@@ -819,7 +821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>9</v>
       </c>
@@ -844,7 +846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
         <v>2</v>
       </c>
@@ -869,7 +871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
@@ -894,7 +896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>6</v>
       </c>
@@ -919,7 +921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
@@ -944,7 +946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -969,37 +971,57 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12">
+        <v>43216</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0.625</v>
+      </c>
       <c r="G20">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="12">
+        <v>43209</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G21">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21">
-        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
       <c r="H21">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="12"/>
@@ -1014,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="12"/>
@@ -1029,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="12"/>
@@ -1044,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="12"/>
@@ -1059,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="12"/>
@@ -1074,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="12"/>
@@ -1089,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
@@ -1104,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -1119,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1134,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1149,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1164,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1179,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1194,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1209,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1224,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1239,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1254,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1269,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1284,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1299,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1314,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1329,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1344,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B45" s="10" t="s">
         <v>0</v>
       </c>
@@ -1354,16 +1376,16 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>23.75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
@@ -1372,7 +1394,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1381,7 +1403,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1390,7 +1412,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1399,7 +1421,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1408,7 +1430,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1417,7 +1439,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1426,7 +1448,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1435,7 +1457,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1444,7 +1466,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1453,7 +1475,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
@@ -1462,7 +1484,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1471,7 +1493,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1480,7 +1502,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1489,7 +1511,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1498,7 +1520,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1507,7 +1529,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1516,7 +1538,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1525,7 +1547,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1534,7 +1556,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1543,7 +1565,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1552,7 +1574,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1561,7 +1583,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1570,7 +1592,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1579,7 +1601,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1588,7 +1610,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1597,7 +1619,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1606,7 +1628,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1615,7 +1637,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1624,7 +1646,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1633,7 +1655,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1642,7 +1664,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1651,7 +1673,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1660,7 +1682,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1669,7 +1691,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1678,7 +1700,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1687,7 +1709,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1696,7 +1718,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1705,7 +1727,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1714,7 +1736,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1723,7 +1745,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1732,7 +1754,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1741,7 +1763,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="2"/>
@@ -1750,7 +1772,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1759,7 +1781,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1768,7 +1790,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -1777,7 +1799,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1786,7 +1808,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1795,7 +1817,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1804,7 +1826,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1813,7 +1835,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1822,7 +1844,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1831,7 +1853,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1840,7 +1862,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1849,7 +1871,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1858,7 +1880,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1867,7 +1889,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1876,7 +1898,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1885,7 +1907,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1894,7 +1916,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1903,7 +1925,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1912,7 +1934,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1921,7 +1943,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1930,7 +1952,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1939,7 +1961,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1948,7 +1970,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1957,7 +1979,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1966,7 +1988,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -1975,7 +1997,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -1984,7 +2006,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -1993,7 +2015,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2002,7 +2024,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2011,7 +2033,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2020,7 +2042,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2029,7 +2051,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2038,7 +2060,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2047,7 +2069,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2056,7 +2078,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2065,7 +2087,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2074,7 +2096,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2083,7 +2105,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2092,7 +2114,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2101,7 +2123,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2110,7 +2132,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2119,7 +2141,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2128,7 +2150,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2137,7 +2159,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2146,7 +2168,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="2"/>
@@ -2155,7 +2177,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2164,7 +2186,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2173,7 +2195,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A138" s="2"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
@@ -2182,7 +2204,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2191,7 +2213,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2200,7 +2222,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2209,7 +2231,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2218,7 +2240,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2227,7 +2249,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2236,7 +2258,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2245,7 +2267,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2254,7 +2276,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2263,7 +2285,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2272,7 +2294,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2281,7 +2303,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2290,7 +2312,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2299,7 +2321,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2308,7 +2330,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2317,7 +2339,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2326,7 +2348,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2335,7 +2357,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2344,7 +2366,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2353,7 +2375,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2362,7 +2384,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2371,7 +2393,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2380,7 +2402,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2389,7 +2411,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2398,7 +2420,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2407,7 +2429,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2416,7 +2438,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2425,7 +2447,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2434,7 +2456,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2443,7 +2465,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2452,7 +2474,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2461,7 +2483,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2470,7 +2492,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2479,7 +2501,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2488,7 +2510,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2497,7 +2519,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2506,7 +2528,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2515,7 +2537,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2524,7 +2546,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2533,7 +2555,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2542,7 +2564,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2551,7 +2573,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="2"/>
@@ -2560,7 +2582,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2569,7 +2591,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2578,7 +2600,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A183" s="2"/>
       <c r="B183" s="6"/>
       <c r="C183" s="2"/>
@@ -2587,7 +2609,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2596,7 +2618,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2605,7 +2627,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2614,7 +2636,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2623,7 +2645,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2632,7 +2654,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2641,7 +2663,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2650,7 +2672,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2659,7 +2681,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2668,7 +2690,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2677,7 +2699,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2686,7 +2708,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2695,7 +2717,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2704,7 +2726,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2713,7 +2735,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2722,7 +2744,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2731,7 +2753,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2740,7 +2762,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2749,7 +2771,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2758,7 +2780,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2767,7 +2789,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2776,7 +2798,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2785,7 +2807,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2794,7 +2816,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2803,7 +2825,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2812,7 +2834,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2821,7 +2843,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2830,7 +2852,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2839,7 +2861,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2848,7 +2870,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2857,7 +2879,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2866,7 +2888,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2875,7 +2897,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2884,7 +2906,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -2893,7 +2915,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2902,7 +2924,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2911,7 +2933,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -2920,7 +2942,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -2929,7 +2951,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -2938,7 +2960,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -2947,25 +2969,25 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E34E9E-3C61-49A4-AA04-9DE56BCBD4D0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="18270" windowHeight="7910"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teuchtmann" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>GESAMT</t>
   </si>
@@ -103,14 +104,17 @@
   <si>
     <t>Besprechung LVA Leiter Release I</t>
   </si>
+  <si>
+    <t xml:space="preserve">Gruppen Meeting Organisatorisches </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -210,11 +214,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,7 +232,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -305,21 +309,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -589,40 +593,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>22</v>
       </c>
@@ -645,7 +649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -670,7 +674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -695,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -720,7 +724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
@@ -745,7 +749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="14" t="s">
         <v>2</v>
@@ -771,7 +775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
@@ -796,7 +800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
@@ -821,7 +825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>9</v>
       </c>
@@ -846,7 +850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>2</v>
       </c>
@@ -871,7 +875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
@@ -896,7 +900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>6</v>
       </c>
@@ -921,7 +925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
@@ -946,7 +950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -971,7 +975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -996,7 +1000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1021,22 +1025,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="12">
+        <v>43223</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="G22">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="12"/>
@@ -1051,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="12"/>
@@ -1066,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="12"/>
@@ -1081,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="12"/>
@@ -1096,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="12"/>
@@ -1111,7 +1125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
@@ -1126,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -1141,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1156,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1171,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1186,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1201,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1216,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1231,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1246,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1261,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1276,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1291,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1306,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1321,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1336,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1351,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1366,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>0</v>
       </c>
@@ -1376,16 +1390,16 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>27.75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+        <v>30.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
@@ -1394,7 +1408,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1403,7 +1417,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1412,7 +1426,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1421,7 +1435,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1430,7 +1444,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1439,7 +1453,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1448,7 +1462,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1457,7 +1471,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1466,7 +1480,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1475,7 +1489,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
@@ -1484,7 +1498,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1493,7 +1507,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1502,7 +1516,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1511,7 +1525,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1520,7 +1534,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1529,7 +1543,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1538,7 +1552,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1547,7 +1561,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1556,7 +1570,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1565,7 +1579,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1574,7 +1588,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1583,7 +1597,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1592,7 +1606,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1601,7 +1615,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1610,7 +1624,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1619,7 +1633,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1628,7 +1642,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1637,7 +1651,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1646,7 +1660,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1655,7 +1669,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1664,7 +1678,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1673,7 +1687,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1682,7 +1696,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1691,7 +1705,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1700,7 +1714,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1709,7 +1723,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1718,7 +1732,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1727,7 +1741,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1736,7 +1750,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1745,7 +1759,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1754,7 +1768,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1763,7 +1777,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="2"/>
@@ -1772,7 +1786,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1781,7 +1795,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1790,7 +1804,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -1799,7 +1813,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1808,7 +1822,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1817,7 +1831,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1826,7 +1840,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1835,7 +1849,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1844,7 +1858,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1853,7 +1867,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1862,7 +1876,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1871,7 +1885,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1880,7 +1894,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1889,7 +1903,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1898,7 +1912,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1907,7 +1921,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1916,7 +1930,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1925,7 +1939,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1934,7 +1948,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1943,7 +1957,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1952,7 +1966,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -1961,7 +1975,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -1970,7 +1984,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -1979,7 +1993,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -1988,7 +2002,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -1997,7 +2011,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2006,7 +2020,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2015,7 +2029,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2024,7 +2038,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2033,7 +2047,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2042,7 +2056,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2051,7 +2065,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2060,7 +2074,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2069,7 +2083,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2078,7 +2092,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2087,7 +2101,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2096,7 +2110,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2105,7 +2119,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2114,7 +2128,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2123,7 +2137,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2132,7 +2146,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2141,7 +2155,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2150,7 +2164,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2159,7 +2173,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2168,7 +2182,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="2"/>
@@ -2177,7 +2191,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2186,7 +2200,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2195,7 +2209,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
@@ -2204,7 +2218,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2213,7 +2227,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2222,7 +2236,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2231,7 +2245,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2240,7 +2254,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2249,7 +2263,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2258,7 +2272,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2267,7 +2281,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2276,7 +2290,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2285,7 +2299,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2294,7 +2308,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2303,7 +2317,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2312,7 +2326,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2321,7 +2335,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2330,7 +2344,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2339,7 +2353,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2348,7 +2362,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2357,7 +2371,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2366,7 +2380,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2375,7 +2389,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2384,7 +2398,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2393,7 +2407,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2402,7 +2416,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2411,7 +2425,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2420,7 +2434,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2429,7 +2443,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2438,7 +2452,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2447,7 +2461,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2456,7 +2470,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2465,7 +2479,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2474,7 +2488,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2483,7 +2497,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2492,7 +2506,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2501,7 +2515,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2510,7 +2524,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2519,7 +2533,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2528,7 +2542,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2537,7 +2551,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2546,7 +2560,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2555,7 +2569,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2564,7 +2578,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2573,7 +2587,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="2"/>
@@ -2582,7 +2596,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2591,7 +2605,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2600,7 +2614,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="6"/>
       <c r="C183" s="2"/>
@@ -2609,7 +2623,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2618,7 +2632,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2627,7 +2641,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2636,7 +2650,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2645,7 +2659,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2654,7 +2668,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2663,7 +2677,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2672,7 +2686,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2681,7 +2695,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2690,7 +2704,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2699,7 +2713,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2708,7 +2722,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2717,7 +2731,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2726,7 +2740,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2735,7 +2749,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2744,7 +2758,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2753,7 +2767,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2762,7 +2776,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2771,7 +2785,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2780,7 +2794,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2789,7 +2803,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2798,7 +2812,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2807,7 +2821,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2816,7 +2830,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2825,7 +2839,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2834,7 +2848,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2843,7 +2857,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2852,7 +2866,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2861,7 +2875,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2870,7 +2884,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2879,7 +2893,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2888,7 +2902,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2897,7 +2911,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2906,7 +2920,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -2915,7 +2929,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2924,7 +2938,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2933,7 +2947,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -2942,7 +2956,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -2951,7 +2965,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -2960,7 +2974,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -2969,25 +2983,25 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E34E9E-3C61-49A4-AA04-9DE56BCBD4D0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="18270" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Teuchtmann" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>GESAMT</t>
   </si>
@@ -107,14 +106,20 @@
   <si>
     <t xml:space="preserve">Gruppen Meeting Organisatorisches </t>
   </si>
+  <si>
+    <t>Aktualisierung der Systemdokumenation und Recherche</t>
+  </si>
+  <si>
+    <t>Aktulaisierung der User Requirements</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -214,11 +219,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -232,7 +237,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -309,21 +314,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H45"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -593,11 +598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,33 +1056,53 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="B23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="12">
+        <v>43221</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="G23">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="H23">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="B24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="12">
+        <v>43222</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="G24">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H24">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1390,7 +1415,7 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>30.75</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="18270" windowHeight="7905"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="18270" windowHeight="7910"/>
   </bookViews>
   <sheets>
     <sheet name="Teuchtmann" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>GESAMT</t>
   </si>
@@ -112,11 +112,14 @@
   <si>
     <t>Aktulaisierung der User Requirements</t>
   </si>
+  <si>
+    <t>LVA - Präsenztermin, Vorstellung der Requirements des 2. Releases</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
@@ -602,36 +605,36 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B25" sqref="B25:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>22</v>
       </c>
@@ -654,7 +657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -679,7 +682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -704,7 +707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -729,7 +732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
@@ -754,7 +757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
       <c r="B11" s="14" t="s">
         <v>2</v>
@@ -780,7 +783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
@@ -805,7 +808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
@@ -830,7 +833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>9</v>
       </c>
@@ -855,7 +858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
         <v>2</v>
       </c>
@@ -880,7 +883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
@@ -905,7 +908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>6</v>
       </c>
@@ -930,7 +933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
@@ -955,7 +958,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -980,7 +983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
         <v>4</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
         <v>4</v>
       </c>
@@ -1105,22 +1108,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="12">
+        <v>43223</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0.63541666666666663</v>
+      </c>
       <c r="G25">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="H25">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="12"/>
@@ -1135,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="12"/>
@@ -1150,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
@@ -1165,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -1180,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1195,7 +1208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1210,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1225,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1240,7 +1253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1255,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1270,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1285,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1300,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1315,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1330,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1345,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1360,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1375,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1390,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1405,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B45" s="10" t="s">
         <v>0</v>
       </c>
@@ -1415,16 +1428,16 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
@@ -1433,7 +1446,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1442,7 +1455,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1451,7 +1464,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1460,7 +1473,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1469,7 +1482,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1478,7 +1491,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1487,7 +1500,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1496,7 +1509,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1505,7 +1518,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1514,7 +1527,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
@@ -1523,7 +1536,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1532,7 +1545,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1541,7 +1554,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1550,7 +1563,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1559,7 +1572,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1568,7 +1581,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1577,7 +1590,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1586,7 +1599,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1595,7 +1608,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1604,7 +1617,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1613,7 +1626,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1622,7 +1635,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1631,7 +1644,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1640,7 +1653,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1649,7 +1662,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1658,7 +1671,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1667,7 +1680,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1676,7 +1689,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1685,7 +1698,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1694,7 +1707,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1703,7 +1716,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1712,7 +1725,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1721,7 +1734,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1730,7 +1743,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1739,7 +1752,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1748,7 +1761,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1757,7 +1770,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1766,7 +1779,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1775,7 +1788,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1784,7 +1797,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1793,7 +1806,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1802,7 +1815,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="2"/>
@@ -1811,7 +1824,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1820,7 +1833,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1829,7 +1842,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -1838,7 +1851,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1847,7 +1860,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1856,7 +1869,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1865,7 +1878,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1874,7 +1887,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1883,7 +1896,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1892,7 +1905,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1901,7 +1914,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1910,7 +1923,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1919,7 +1932,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1928,7 +1941,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1937,7 +1950,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1946,7 +1959,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1955,7 +1968,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1964,7 +1977,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1973,7 +1986,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1982,7 +1995,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -1991,7 +2004,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2000,7 +2013,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2009,7 +2022,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2018,7 +2031,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2027,7 +2040,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2036,7 +2049,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2045,7 +2058,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2054,7 +2067,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2063,7 +2076,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2072,7 +2085,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2081,7 +2094,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2090,7 +2103,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2099,7 +2112,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2108,7 +2121,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2117,7 +2130,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2126,7 +2139,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2135,7 +2148,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2144,7 +2157,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2153,7 +2166,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2162,7 +2175,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2171,7 +2184,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2180,7 +2193,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2189,7 +2202,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2198,7 +2211,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2207,7 +2220,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="2"/>
@@ -2216,7 +2229,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2225,7 +2238,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2234,7 +2247,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A138" s="2"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
@@ -2243,7 +2256,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2252,7 +2265,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2261,7 +2274,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2270,7 +2283,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2279,7 +2292,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2288,7 +2301,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2297,7 +2310,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2306,7 +2319,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2315,7 +2328,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2324,7 +2337,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2333,7 +2346,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2342,7 +2355,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2351,7 +2364,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2360,7 +2373,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2369,7 +2382,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2378,7 +2391,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2387,7 +2400,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2396,7 +2409,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2405,7 +2418,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2414,7 +2427,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2423,7 +2436,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2432,7 +2445,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2441,7 +2454,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2450,7 +2463,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2459,7 +2472,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2468,7 +2481,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2477,7 +2490,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2486,7 +2499,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2495,7 +2508,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2504,7 +2517,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2513,7 +2526,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2522,7 +2535,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2531,7 +2544,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2540,7 +2553,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2549,7 +2562,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2558,7 +2571,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2567,7 +2580,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2576,7 +2589,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2585,7 +2598,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2594,7 +2607,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2603,7 +2616,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2612,7 +2625,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="2"/>
@@ -2621,7 +2634,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2630,7 +2643,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2639,7 +2652,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A183" s="2"/>
       <c r="B183" s="6"/>
       <c r="C183" s="2"/>
@@ -2648,7 +2661,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2657,7 +2670,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2666,7 +2679,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2675,7 +2688,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2684,7 +2697,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2693,7 +2706,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2702,7 +2715,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2711,7 +2724,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2720,7 +2733,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2729,7 +2742,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2738,7 +2751,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2747,7 +2760,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2756,7 +2769,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2765,7 +2778,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2774,7 +2787,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2783,7 +2796,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2792,7 +2805,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2801,7 +2814,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2810,7 +2823,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2819,7 +2832,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2828,7 +2841,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2837,7 +2850,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2846,7 +2859,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2855,7 +2868,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2864,7 +2877,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2873,7 +2886,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2882,7 +2895,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2891,7 +2904,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2900,7 +2913,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2909,7 +2922,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2918,7 +2931,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2927,7 +2940,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2936,7 +2949,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2945,7 +2958,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -2954,7 +2967,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2963,7 +2976,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2972,7 +2985,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -2981,7 +2994,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -2990,7 +3003,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -2999,7 +3012,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -3008,25 +3021,25 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="18270" windowHeight="7910"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="18270" windowHeight="7910"/>
   </bookViews>
   <sheets>
     <sheet name="Teuchtmann" sheetId="1" r:id="rId1"/>
@@ -110,10 +110,10 @@
     <t>Aktualisierung der Systemdokumenation und Recherche</t>
   </si>
   <si>
-    <t>Aktulaisierung der User Requirements</t>
+    <t>LVA - Präsenztermin, Vorstellung der Requirements des 2. Releases</t>
   </si>
   <si>
-    <t>LVA - Präsenztermin, Vorstellung der Requirements des 2. Releases</t>
+    <t>Aktualisierung der User Requirements</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:F25"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1088,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" s="12">
         <v>43222</v>
@@ -1113,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="12">
         <v>43223</v>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C00C240-6127-473C-A6E0-92F1CFB4C64C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="18270" windowHeight="7910"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teuchtmann" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>GESAMT</t>
   </si>
@@ -119,10 +120,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -222,11 +223,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,7 +241,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -317,21 +318,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -601,40 +602,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B27" sqref="B27:H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>22</v>
       </c>
@@ -657,7 +658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -682,7 +683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -707,7 +708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -732,7 +733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
@@ -757,7 +758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="14" t="s">
         <v>2</v>
@@ -783,7 +784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
@@ -808,7 +809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
@@ -833,7 +834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>9</v>
       </c>
@@ -858,7 +859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>2</v>
       </c>
@@ -883,7 +884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
@@ -908,7 +909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>6</v>
       </c>
@@ -933,7 +934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
@@ -958,7 +959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -983,7 +984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1008,7 +1009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1033,7 +1034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>2</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>4</v>
       </c>
@@ -1108,7 +1109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>2</v>
       </c>
@@ -1133,22 +1134,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12">
+        <v>43237</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0.625</v>
+      </c>
       <c r="G26">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H26">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="12"/>
@@ -1163,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="12"/>
@@ -1178,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="12"/>
@@ -1193,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="12"/>
@@ -1208,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="12"/>
@@ -1223,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="12"/>
@@ -1238,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="12"/>
@@ -1253,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="12"/>
@@ -1268,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="12"/>
@@ -1283,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="12"/>
@@ -1298,7 +1309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="12"/>
@@ -1313,7 +1324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1328,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1343,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
@@ -1358,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
@@ -1373,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
@@ -1388,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
@@ -1403,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1418,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>0</v>
       </c>
@@ -1428,16 +1439,16 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>36.75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+        <v>40.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2"/>
@@ -1446,7 +1457,7 @@
       <c r="G48"/>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1455,7 +1466,7 @@
       <c r="G49"/>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1464,7 +1475,7 @@
       <c r="G50"/>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1473,7 +1484,7 @@
       <c r="G51"/>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1482,7 +1493,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1491,7 +1502,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1500,7 +1511,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1509,7 +1520,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1518,7 +1529,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1527,7 +1538,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
@@ -1536,7 +1547,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1545,7 +1556,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1554,7 +1565,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1563,7 +1574,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1572,7 +1583,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1581,7 +1592,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1590,7 +1601,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1599,7 +1610,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1608,7 +1619,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1617,7 +1628,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1626,7 +1637,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1635,7 +1646,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1644,7 +1655,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1653,7 +1664,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1662,7 +1673,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1671,7 +1682,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1680,7 +1691,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1689,7 +1700,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1698,7 +1709,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1707,7 +1718,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1716,7 +1727,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1725,7 +1736,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1734,7 +1745,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1743,7 +1754,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1752,7 +1763,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1761,7 +1772,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1770,7 +1781,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1779,7 +1790,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1788,7 +1799,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1797,7 +1808,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1806,7 +1817,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1815,7 +1826,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="7"/>
       <c r="C90" s="2"/>
@@ -1824,7 +1835,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1833,7 +1844,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1842,7 +1853,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
@@ -1851,7 +1862,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1860,7 +1871,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1869,7 +1880,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -1878,7 +1889,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -1887,7 +1898,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -1896,7 +1907,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -1905,7 +1916,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -1914,7 +1925,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -1923,7 +1934,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -1932,7 +1943,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -1941,7 +1952,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -1950,7 +1961,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -1959,7 +1970,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -1968,7 +1979,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -1977,7 +1988,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -1986,7 +1997,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -1995,7 +2006,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2004,7 +2015,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2013,7 +2024,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2022,7 +2033,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2031,7 +2042,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2040,7 +2051,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2049,7 +2060,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2058,7 +2069,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2067,7 +2078,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2076,7 +2087,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2085,7 +2096,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2094,7 +2105,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2103,7 +2114,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2112,7 +2123,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2121,7 +2132,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2130,7 +2141,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2139,7 +2150,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2148,7 +2159,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2157,7 +2168,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2166,7 +2177,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2175,7 +2186,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2184,7 +2195,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2193,7 +2204,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2202,7 +2213,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2211,7 +2222,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2220,7 +2231,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="2"/>
@@ -2229,7 +2240,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2238,7 +2249,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2247,7 +2258,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="6"/>
       <c r="C138" s="2"/>
@@ -2256,7 +2267,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2265,7 +2276,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -2274,7 +2285,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2283,7 +2294,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2292,7 +2303,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2301,7 +2312,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2310,7 +2321,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2319,7 +2330,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2328,7 +2339,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2337,7 +2348,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2346,7 +2357,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2355,7 +2366,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2364,7 +2375,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2373,7 +2384,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2382,7 +2393,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2391,7 +2402,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2400,7 +2411,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2409,7 +2420,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2418,7 +2429,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2427,7 +2438,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2436,7 +2447,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2445,7 +2456,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2454,7 +2465,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2463,7 +2474,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2472,7 +2483,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2481,7 +2492,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2490,7 +2501,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2499,7 +2510,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2508,7 +2519,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2517,7 +2528,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2526,7 +2537,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2535,7 +2546,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2544,7 +2555,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2553,7 +2564,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2562,7 +2573,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2571,7 +2582,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2580,7 +2591,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2589,7 +2600,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2598,7 +2609,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2607,7 +2618,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2616,7 +2627,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2625,7 +2636,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="7"/>
       <c r="C180" s="2"/>
@@ -2634,7 +2645,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2643,7 +2654,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2652,7 +2663,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="6"/>
       <c r="C183" s="2"/>
@@ -2661,7 +2672,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2670,7 +2681,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2679,7 +2690,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -2688,7 +2699,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2697,7 +2708,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2706,7 +2717,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -2715,7 +2726,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2724,7 +2735,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -2733,7 +2744,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2742,7 +2753,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2751,7 +2762,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2760,7 +2771,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2769,7 +2780,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2778,7 +2789,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2787,7 +2798,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2796,7 +2807,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2805,7 +2816,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2814,7 +2825,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2823,7 +2834,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2832,7 +2843,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2841,7 +2852,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2850,7 +2861,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2859,7 +2870,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2868,7 +2879,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2877,7 +2888,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -2886,7 +2897,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -2895,7 +2906,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -2904,7 +2915,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -2913,7 +2924,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -2922,7 +2933,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -2931,7 +2942,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -2940,7 +2951,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -2949,7 +2960,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -2958,7 +2969,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -2967,7 +2978,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -2976,7 +2987,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -2985,7 +2996,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -2994,7 +3005,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -3003,7 +3014,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -3012,7 +3023,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -3021,25 +3032,25 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C00C240-6127-473C-A6E0-92F1CFB4C64C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="18270" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Teuchtmann" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>GESAMT</t>
   </si>
@@ -115,15 +114,27 @@
   </si>
   <si>
     <t>Aktualisierung der User Requirements</t>
+  </si>
+  <si>
+    <t>Datenbank (mySQL) installiert und eingerichtet</t>
+  </si>
+  <si>
+    <t>Recherche zur Funktionalität von mySQL</t>
+  </si>
+  <si>
+    <t>Codereview (laut Gruppenreviewmethoden)</t>
+  </si>
+  <si>
+    <t>Codereview</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -223,11 +234,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,7 +252,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -318,21 +329,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H45"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -602,11 +613,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:H27"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,48 +1171,78 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="B27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="12">
+        <v>43234</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0.98958333333333337</v>
+      </c>
       <c r="G27">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H27">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="B28" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="12">
+        <v>43235</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="G28">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="B29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="12">
+        <v>43237</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.875</v>
+      </c>
       <c r="G29">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -1439,7 +1480,7 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>40.75</v>
+        <v>49.25</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4835CE3F-6650-4144-B372-5640A73ABC48}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="18270" windowHeight="7905"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teuchtmann" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>GESAMT</t>
   </si>
@@ -126,15 +127,18 @@
   </si>
   <si>
     <t>Codereview</t>
+  </si>
+  <si>
+    <t>Gruppen Meeting Fehlerbehebung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -234,11 +238,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,7 +256,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -329,21 +333,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -613,11 +617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,18 +1250,28 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="B30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="12">
+        <v>43243</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="G30">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H30">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -1480,7 +1494,7 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>49.25</v>
+        <v>53.75</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4835CE3F-6650-4144-B372-5640A73ABC48}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="18270" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Teuchtmann" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>GESAMT</t>
   </si>
@@ -123,22 +122,25 @@
     <t>Recherche zur Funktionalität von mySQL</t>
   </si>
   <si>
-    <t>Codereview (laut Gruppenreviewmethoden)</t>
-  </si>
-  <si>
     <t>Codereview</t>
   </si>
   <si>
     <t>Gruppen Meeting Fehlerbehebung</t>
+  </si>
+  <si>
+    <t>Codereview (Reviewmethoden)</t>
+  </si>
+  <si>
+    <t>Datenbankverbindungen in Programmcode integrieren</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -238,11 +240,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,7 +258,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -333,21 +335,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H45"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -617,11 +619,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,10 +1228,10 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D29" s="12">
         <v>43237</v>
@@ -1238,11 +1240,11 @@
         <v>0.75</v>
       </c>
       <c r="F29" s="11">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="G29">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H29">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
@@ -1254,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="12">
         <v>43243</v>
@@ -1275,48 +1277,78 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="B31" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="12">
+        <v>43243</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G31">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="B32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="12">
+        <v>43241</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0.875</v>
+      </c>
       <c r="G32">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H32">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="B33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="12">
+        <v>43242</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="G33">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H33">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1494,7 +1526,7 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>53.75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="18270" windowHeight="7905"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Teuchtmann" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
   <si>
     <t>GESAMT</t>
   </si>
@@ -132,12 +132,15 @@
   </si>
   <si>
     <t>Datenbankverbindungen in Programmcode integrieren</t>
+  </si>
+  <si>
+    <t>Vorbereitung Präsentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
@@ -623,7 +626,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,18 +1355,28 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="B34" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="12">
+        <v>43244</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="G34">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H34">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1526,7 +1539,7 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>65</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD6984E-4F66-423A-A976-9F00B7505226}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7905"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teuchtmann" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>GESAMT</t>
   </si>
@@ -140,10 +141,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -243,11 +244,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,7 +262,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -338,21 +339,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -622,11 +623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,18 +1381,28 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="B35" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="12">
+        <v>43256</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0.5</v>
+      </c>
       <c r="G35">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1539,7 +1550,7 @@
       <c r="F45" s="9"/>
       <c r="G45">
         <f>SUM(G7:G44)</f>
-        <v>66.5</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD6984E-4F66-423A-A976-9F00B7505226}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="18270" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8380" yWindow="0" windowWidth="18270" windowHeight="7910"/>
   </bookViews>
   <sheets>
     <sheet name="Teuchtmann" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>GESAMT</t>
   </si>
@@ -136,15 +135,21 @@
   </si>
   <si>
     <t>Vorbereitung Präsentation</t>
+  </si>
+  <si>
+    <t>Erstellung der Konzepte für die Anforderungspräsentation Release 3</t>
+  </si>
+  <si>
+    <t>Gruppenmeeting: Vorbereitung Präsentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -244,11 +249,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,7 +267,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -295,6 +300,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -339,21 +345,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle35" displayName="Tabelle35" ref="B6:H45" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle35" displayName="Tabelle35" ref="B6:H51" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H51"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -623,40 +629,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B4" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>22</v>
       </c>
@@ -679,7 +685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -704,7 +710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -729,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -754,7 +760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
@@ -779,7 +785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
       <c r="B11" s="14" t="s">
         <v>2</v>
@@ -805,7 +811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
@@ -830,7 +836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
@@ -855,7 +861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="14" t="s">
         <v>9</v>
       </c>
@@ -880,7 +886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
         <v>2</v>
       </c>
@@ -905,7 +911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
@@ -930,7 +936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="14" t="s">
         <v>6</v>
       </c>
@@ -955,7 +961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
@@ -980,7 +986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -1005,132 +1011,132 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="12">
+        <v>43209</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G20">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>1</v>
       </c>
-      <c r="D20" s="12">
-        <v>43216</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="G20">
-        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>3</v>
-      </c>
       <c r="H20">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D21" s="12">
-        <v>43209</v>
+        <v>43216</v>
       </c>
       <c r="E21" s="11">
-        <v>0.60416666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="F21" s="11">
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="G21">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" s="12">
-        <v>43223</v>
+        <v>43221</v>
       </c>
       <c r="E22" s="11">
-        <v>0.41666666666666669</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="F22" s="11">
-        <v>0.54166666666666663</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="G22">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="H22">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>27</v>
+      <c r="C23" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D23" s="12">
-        <v>43221</v>
+        <v>43222</v>
       </c>
       <c r="E23" s="11">
-        <v>0.80208333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="F23" s="11">
-        <v>0.85416666666666663</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="G23">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="H23">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D24" s="12">
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="E24" s="11">
-        <v>0.875</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F24" s="11">
-        <v>0.97916666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="G24">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="14" t="s">
         <v>2</v>
       </c>
@@ -1155,82 +1161,82 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="12">
+        <v>43234</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="G26">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>2.5</v>
+      </c>
+      <c r="H26">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="12">
-        <v>43237</v>
-      </c>
-      <c r="E26" s="11">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F26" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="G26">
-        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>4</v>
-      </c>
-      <c r="H26">
+      <c r="C27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="12">
+        <v>43235</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="G27">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>3</v>
+      </c>
+      <c r="H27">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="12">
-        <v>43234</v>
-      </c>
-      <c r="E27" s="11">
-        <v>0.88541666666666663</v>
-      </c>
-      <c r="F27" s="11">
-        <v>0.98958333333333337</v>
-      </c>
-      <c r="G27">
-        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>2.5</v>
-      </c>
-      <c r="H27">
-        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D28" s="12">
-        <v>43235</v>
+        <v>43237</v>
       </c>
       <c r="E28" s="11">
-        <v>0.39583333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F28" s="11">
-        <v>0.52083333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="G28">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B29" s="13" t="s">
         <v>32</v>
       </c>
@@ -1255,107 +1261,107 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="12">
+        <v>43241</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0.875</v>
+      </c>
+      <c r="G30">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H30">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="12">
+        <v>43242</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G31">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>3.75</v>
+      </c>
+      <c r="H31">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B32" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D32" s="12">
         <v>43243</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E32" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F32" s="11">
         <v>0.60416666666666663</v>
       </c>
-      <c r="G30">
+      <c r="G32">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>4.5</v>
       </c>
-      <c r="H30">
+      <c r="H32">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B33" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D33" s="12">
         <v>43243</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E33" s="11">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F33" s="11">
         <v>0.95833333333333337</v>
       </c>
-      <c r="G31">
+      <c r="G33">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>3</v>
       </c>
-      <c r="H31">
+      <c r="H33">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="12">
-        <v>43241</v>
-      </c>
-      <c r="E32" s="11">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="F32" s="11">
-        <v>0.875</v>
-      </c>
-      <c r="G32">
-        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>3.5</v>
-      </c>
-      <c r="H32">
-        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="12">
-        <v>43242</v>
-      </c>
-      <c r="E33" s="11">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="F33" s="11">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="G33">
-        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>3.75</v>
-      </c>
-      <c r="H33">
-        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" s="13" t="s">
         <v>2</v>
       </c>
@@ -1380,62 +1386,82 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="12">
+        <v>43253</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G35">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>2.5</v>
+      </c>
+      <c r="H35">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D36" s="12">
         <v>43256</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E36" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F36" s="11">
         <v>0.5</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>2</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36">
-        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="12">
+        <v>43258</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="G37">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="12"/>
@@ -1450,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="12"/>
@@ -1465,67 +1491,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="12"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-      <c r="G40">
+      <c r="G40" s="25">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="25">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="12"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-      <c r="G41">
+      <c r="G41" s="25">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="25">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="12"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42">
+      <c r="G42" s="25">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="25">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="12"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-      <c r="G43">
+      <c r="G43" s="25">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="25">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="12"/>
@@ -1540,107 +1566,161 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="25">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45">
-        <f>SUM(G7:G44)</f>
-        <v>68.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="25">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="25">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="25">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-    </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-    </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="4"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-    </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="3"/>
-      <c r="F51"/>
-      <c r="G51"/>
+      <c r="B51" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51">
+        <f>SUM(G7:G50)</f>
+        <v>73</v>
+      </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="3"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
+      <c r="D53" s="2"/>
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="B54" s="6"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="2"/>
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="3"/>
+      <c r="D55" s="2"/>
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="3"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="4"/>
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1649,16 +1729,16 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
-      <c r="B58" s="8"/>
+      <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="F58"/>
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1667,7 +1747,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1676,7 +1756,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1685,7 +1765,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1694,7 +1774,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1703,16 +1783,16 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="B64" s="8"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1721,7 +1801,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1730,7 +1810,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1739,7 +1819,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1748,7 +1828,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1757,7 +1837,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1766,7 +1846,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1775,7 +1855,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1784,7 +1864,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1793,7 +1873,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1802,7 +1882,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1811,7 +1891,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1820,7 +1900,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1829,7 +1909,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1838,7 +1918,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1847,7 +1927,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1856,7 +1936,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1865,7 +1945,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1874,7 +1954,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1883,7 +1963,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1892,7 +1972,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1901,7 +1981,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1910,7 +1990,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1919,7 +1999,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1928,7 +2008,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1937,115 +2017,115 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
-      <c r="B90" s="7"/>
+      <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
       <c r="F90"/>
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="D91" s="3"/>
       <c r="F91"/>
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="D92" s="3"/>
       <c r="F92"/>
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
-      <c r="B93" s="6"/>
+      <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="D93" s="3"/>
       <c r="F93"/>
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="D94" s="3"/>
       <c r="F94"/>
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="4"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="3"/>
       <c r="F95"/>
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
+      <c r="B96" s="7"/>
       <c r="C96" s="2"/>
       <c r="D96" s="3"/>
       <c r="F96"/>
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="3"/>
+      <c r="D97" s="2"/>
       <c r="F97"/>
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="3"/>
+      <c r="D98" s="2"/>
       <c r="F98"/>
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
+      <c r="B99" s="6"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="3"/>
+      <c r="D99" s="2"/>
       <c r="F99"/>
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="3"/>
+      <c r="D100" s="2"/>
       <c r="F100"/>
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="3"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="4"/>
       <c r="F101"/>
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2054,7 +2134,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2063,7 +2143,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2072,7 +2152,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2081,7 +2161,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2090,7 +2170,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2099,7 +2179,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2108,7 +2188,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2117,7 +2197,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2126,7 +2206,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2135,7 +2215,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2144,7 +2224,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2153,7 +2233,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2162,7 +2242,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2171,7 +2251,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2180,7 +2260,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2189,7 +2269,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2198,7 +2278,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2207,7 +2287,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2216,7 +2296,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2225,7 +2305,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2234,7 +2314,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2243,7 +2323,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2252,7 +2332,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2261,7 +2341,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2270,7 +2350,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2279,7 +2359,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2288,7 +2368,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2297,7 +2377,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2306,7 +2386,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2315,7 +2395,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2324,7 +2404,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2333,7 +2413,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2342,115 +2422,115 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
-      <c r="B135" s="7"/>
+      <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="3"/>
       <c r="F135"/>
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
+      <c r="D136" s="3"/>
       <c r="F136"/>
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
+      <c r="D137" s="3"/>
       <c r="F137"/>
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
-      <c r="B138" s="6"/>
+      <c r="B138" s="2"/>
       <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
+      <c r="D138" s="3"/>
       <c r="F138"/>
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
+      <c r="D139" s="3"/>
       <c r="F139"/>
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
-      <c r="D140" s="4"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="3"/>
       <c r="F140"/>
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
+      <c r="B141" s="7"/>
       <c r="C141" s="2"/>
       <c r="D141" s="3"/>
       <c r="F141"/>
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
-      <c r="D142" s="3"/>
+      <c r="D142" s="2"/>
       <c r="F142"/>
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="3"/>
+      <c r="D143" s="2"/>
       <c r="F143"/>
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
+      <c r="B144" s="6"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="3"/>
+      <c r="D144" s="2"/>
       <c r="F144"/>
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="3"/>
+      <c r="D145" s="2"/>
       <c r="F145"/>
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="3"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="4"/>
       <c r="F146"/>
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2459,7 +2539,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2468,7 +2548,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2477,7 +2557,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2486,7 +2566,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2495,7 +2575,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2504,7 +2584,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2513,7 +2593,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2522,7 +2602,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2531,7 +2611,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2540,7 +2620,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2549,7 +2629,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2558,7 +2638,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2567,7 +2647,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2576,7 +2656,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2585,7 +2665,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2594,7 +2674,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2603,7 +2683,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2612,7 +2692,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2621,7 +2701,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2630,7 +2710,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2639,7 +2719,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2648,7 +2728,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2657,7 +2737,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2666,7 +2746,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2675,7 +2755,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2684,7 +2764,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2693,7 +2773,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2702,7 +2782,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2711,7 +2791,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2720,7 +2800,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2729,7 +2809,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2738,7 +2818,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2747,115 +2827,115 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="2"/>
-      <c r="B180" s="7"/>
+      <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="3"/>
       <c r="F180"/>
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
+      <c r="D181" s="3"/>
       <c r="F181"/>
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
+      <c r="D182" s="3"/>
       <c r="F182"/>
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A183" s="2"/>
-      <c r="B183" s="6"/>
+      <c r="B183" s="2"/>
       <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
+      <c r="D183" s="3"/>
       <c r="F183"/>
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
+      <c r="D184" s="3"/>
       <c r="F184"/>
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A185" s="2"/>
-      <c r="B185" s="5"/>
-      <c r="C185" s="5"/>
-      <c r="D185" s="4"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="3"/>
       <c r="F185"/>
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
+      <c r="B186" s="7"/>
       <c r="C186" s="2"/>
       <c r="D186" s="3"/>
       <c r="F186"/>
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
-      <c r="D187" s="3"/>
+      <c r="D187" s="2"/>
       <c r="F187"/>
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
-      <c r="D188" s="3"/>
+      <c r="D188" s="2"/>
       <c r="F188"/>
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
+      <c r="B189" s="6"/>
       <c r="C189" s="2"/>
-      <c r="D189" s="3"/>
+      <c r="D189" s="2"/>
       <c r="F189"/>
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
-      <c r="D190" s="3"/>
+      <c r="D190" s="2"/>
       <c r="F190"/>
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="3"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="4"/>
       <c r="F191"/>
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2864,7 +2944,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2873,7 +2953,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2882,7 +2962,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2891,7 +2971,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2900,7 +2980,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2909,7 +2989,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2918,7 +2998,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -2927,7 +3007,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -2936,7 +3016,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -2945,7 +3025,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -2954,7 +3034,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -2963,7 +3043,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -2972,7 +3052,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -2981,7 +3061,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -2990,7 +3070,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -2999,7 +3079,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3008,7 +3088,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3017,7 +3097,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3026,7 +3106,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3035,7 +3115,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3044,7 +3124,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3053,7 +3133,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3062,7 +3142,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3071,7 +3151,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3080,7 +3160,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3089,7 +3169,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3098,7 +3178,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3107,7 +3187,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3116,52 +3196,61 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
-      <c r="B221"/>
-      <c r="C221"/>
-      <c r="D221"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="3"/>
       <c r="F221"/>
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="2"/>
-      <c r="B222"/>
-      <c r="C222"/>
-      <c r="D222"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="3"/>
       <c r="F222"/>
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
-      <c r="B223"/>
-      <c r="C223"/>
-      <c r="D223"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="3"/>
       <c r="F223"/>
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="2"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="3"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="3"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="2"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="3"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Github\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="0" windowWidth="18270" windowHeight="7910"/>
+    <workbookView xWindow="8385" yWindow="0" windowWidth="18270" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Teuchtmann" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t>GESAMT</t>
   </si>
@@ -141,12 +141,27 @@
   </si>
   <si>
     <t>Gruppenmeeting: Vorbereitung Präsentation</t>
+  </si>
+  <si>
+    <t>Systemdokumentation erweitern</t>
+  </si>
+  <si>
+    <t>Gruppen Meeting, Besprechung des Programmcodes</t>
+  </si>
+  <si>
+    <t>Delete-Methoden überarbeiten (speziell von "Person")</t>
+  </si>
+  <si>
+    <t>Connection Methoden komplett auslagern</t>
+  </si>
+  <si>
+    <t>static Methoden anlegen, View entsprechend anpassen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
@@ -632,37 +647,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="75.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>22</v>
       </c>
@@ -685,7 +700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -710,7 +725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -735,7 +750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -760,7 +775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
@@ -785,7 +800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="14" t="s">
         <v>2</v>
@@ -811,7 +826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
@@ -836,7 +851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
@@ -861,7 +876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>9</v>
       </c>
@@ -886,7 +901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>2</v>
       </c>
@@ -911,7 +926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
@@ -936,7 +951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>6</v>
       </c>
@@ -961,7 +976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
@@ -986,7 +1001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -1011,7 +1026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1036,7 +1051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1061,7 +1076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>4</v>
       </c>
@@ -1086,7 +1101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>4</v>
       </c>
@@ -1111,7 +1126,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
@@ -1136,7 +1151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>2</v>
       </c>
@@ -1161,7 +1176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>9</v>
       </c>
@@ -1186,7 +1201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>2</v>
       </c>
@@ -1211,7 +1226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>2</v>
       </c>
@@ -1236,7 +1251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
         <v>32</v>
       </c>
@@ -1261,7 +1276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="13" t="s">
         <v>9</v>
       </c>
@@ -1286,7 +1301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
         <v>9</v>
       </c>
@@ -1311,7 +1326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
         <v>2</v>
       </c>
@@ -1336,7 +1351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>32</v>
       </c>
@@ -1361,7 +1376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
         <v>2</v>
       </c>
@@ -1386,7 +1401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
         <v>2</v>
       </c>
@@ -1411,7 +1426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
         <v>2</v>
       </c>
@@ -1436,7 +1451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
         <v>2</v>
       </c>
@@ -1461,112 +1476,182 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="12">
+        <v>43262</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G38">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H38">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="12">
+        <v>43263</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="G39">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H39">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="12">
+        <v>43265</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0.625</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G40" s="25">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39">
-        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="25">
-        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
       <c r="H40" s="25">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="12">
+        <v>43266</v>
+      </c>
+      <c r="E41" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0.92708333333333337</v>
+      </c>
       <c r="G41" s="25">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H41" s="25">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="12">
+        <v>43267</v>
+      </c>
+      <c r="E42" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="G42" s="25">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H42" s="25">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="12">
+        <v>43267</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0.8125</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="G43" s="25">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H43" s="25">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="12">
+        <v>43268</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="F44" s="11">
+        <v>0.76041666666666663</v>
+      </c>
       <c r="G44">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H44">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="12"/>
@@ -1581,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="12"/>
@@ -1596,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -1612,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -1628,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -1644,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -1660,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="10" t="s">
         <v>0</v>
@@ -1671,11 +1756,11 @@
       <c r="F51" s="9"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>73</v>
+        <v>93.25</v>
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -1684,7 +1769,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1693,7 +1778,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="6"/>
       <c r="C54" s="2"/>
@@ -1702,7 +1787,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1711,7 +1796,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1720,7 +1805,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1729,7 +1814,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1738,7 +1823,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1747,7 +1832,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1756,7 +1841,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1765,7 +1850,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1774,7 +1859,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1783,7 +1868,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="8"/>
       <c r="C64" s="2"/>
@@ -1792,7 +1877,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1801,7 +1886,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1810,7 +1895,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1819,7 +1904,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1828,7 +1913,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1837,7 +1922,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1846,7 +1931,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1855,7 +1940,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1864,7 +1949,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1873,7 +1958,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1882,7 +1967,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1891,7 +1976,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1900,7 +1985,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1909,7 +1994,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1918,7 +2003,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1927,7 +2012,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1936,7 +2021,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1945,7 +2030,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1954,7 +2039,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1963,7 +2048,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1972,7 +2057,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1981,7 +2066,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1990,7 +2075,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1999,7 +2084,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2008,7 +2093,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2017,7 +2102,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2026,7 +2111,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2035,7 +2120,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2044,7 +2129,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2053,7 +2138,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2062,7 +2147,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2071,7 +2156,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="7"/>
       <c r="C96" s="2"/>
@@ -2080,7 +2165,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2089,7 +2174,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2098,7 +2183,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="6"/>
       <c r="C99" s="2"/>
@@ -2107,7 +2192,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2116,7 +2201,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -2125,7 +2210,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2134,7 +2219,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2143,7 +2228,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2152,7 +2237,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2161,7 +2246,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2170,7 +2255,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2179,7 +2264,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2188,7 +2273,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2197,7 +2282,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2206,7 +2291,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2215,7 +2300,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2224,7 +2309,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2233,7 +2318,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2242,7 +2327,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2251,7 +2336,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2260,7 +2345,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2269,7 +2354,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2278,7 +2363,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2287,7 +2372,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2296,7 +2381,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2305,7 +2390,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2314,7 +2399,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2323,7 +2408,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2332,7 +2417,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2341,7 +2426,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2350,7 +2435,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2359,7 +2444,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2368,7 +2453,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2377,7 +2462,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2386,7 +2471,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2395,7 +2480,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2404,7 +2489,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2413,7 +2498,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2422,7 +2507,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2431,7 +2516,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2440,7 +2525,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2449,7 +2534,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2458,7 +2543,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2467,7 +2552,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2476,7 +2561,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="7"/>
       <c r="C141" s="2"/>
@@ -2485,7 +2570,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2494,7 +2579,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2503,7 +2588,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="6"/>
       <c r="C144" s="2"/>
@@ -2512,7 +2597,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2521,7 +2606,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -2530,7 +2615,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2539,7 +2624,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2548,7 +2633,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2557,7 +2642,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2566,7 +2651,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2575,7 +2660,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2584,7 +2669,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2593,7 +2678,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2602,7 +2687,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2611,7 +2696,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2620,7 +2705,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2629,7 +2714,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2638,7 +2723,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2647,7 +2732,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2656,7 +2741,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2665,7 +2750,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2674,7 +2759,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2683,7 +2768,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2692,7 +2777,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2701,7 +2786,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2710,7 +2795,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2719,7 +2804,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2728,7 +2813,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2737,7 +2822,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2746,7 +2831,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2755,7 +2840,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2764,7 +2849,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2773,7 +2858,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2782,7 +2867,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2791,7 +2876,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2800,7 +2885,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2809,7 +2894,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2818,7 +2903,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2827,7 +2912,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -2836,7 +2921,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2845,7 +2930,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2854,7 +2939,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -2863,7 +2948,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -2872,7 +2957,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -2881,7 +2966,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="7"/>
       <c r="C186" s="2"/>
@@ -2890,7 +2975,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -2899,7 +2984,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -2908,7 +2993,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="6"/>
       <c r="C189" s="2"/>
@@ -2917,7 +3002,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -2926,7 +3011,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -2935,7 +3020,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -2944,7 +3029,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -2953,7 +3038,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -2962,7 +3047,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -2971,7 +3056,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -2980,7 +3065,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -2989,7 +3074,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -2998,7 +3083,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -3007,7 +3092,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -3016,7 +3101,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -3025,7 +3110,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -3034,7 +3119,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -3043,7 +3128,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -3052,7 +3137,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -3061,7 +3146,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -3070,7 +3155,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -3079,7 +3164,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3088,7 +3173,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3097,7 +3182,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3106,7 +3191,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3115,7 +3200,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3124,7 +3209,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3133,7 +3218,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3142,7 +3227,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3151,7 +3236,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3160,7 +3245,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3169,7 +3254,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3178,7 +3263,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3187,7 +3272,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3196,7 +3281,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -3205,7 +3290,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -3214,7 +3299,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -3223,34 +3308,34 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="3"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>GESAMT</t>
   </si>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,18 +1652,28 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+      <c r="B45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="12">
+        <v>43269</v>
+      </c>
+      <c r="E45" s="11">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="G45" s="25">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="H45" s="25">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1756,7 +1766,7 @@
       <c r="F51" s="9"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>93.25</v>
+        <v>95.5</v>
       </c>
       <c r="H51"/>
     </row>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t>GESAMT</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>static Methoden anlegen, View entsprechend anpassen</t>
+  </si>
+  <si>
+    <t>Funktion zum Laden der kompletten "Person"</t>
   </si>
 </sst>
 </file>
@@ -647,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,18 +1680,28 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+      <c r="B46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="12">
+        <v>43275</v>
+      </c>
+      <c r="E46" s="11">
+        <v>0.8125</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="G46">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H46">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1766,7 +1779,7 @@
       <c r="F51" s="9"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>95.5</v>
+        <v>97.5</v>
       </c>
       <c r="H51"/>
     </row>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>GESAMT</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>Funktion zum Laden der kompletten "Person"</t>
+  </si>
+  <si>
+    <t>Variablennamen ändern, Methoden an Datenbank Verbindungen anpassen</t>
+  </si>
+  <si>
+    <t>Ausarbeiten der Funktionen: Personen, Projekte entfernen</t>
   </si>
 </sst>
 </file>
@@ -650,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,34 +1712,54 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="B47" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="12">
+        <v>43279</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0.75</v>
+      </c>
       <c r="G47" s="25">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H47" s="25">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
+      <c r="B48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="12">
+        <v>43280</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0.625</v>
+      </c>
       <c r="G48">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H48">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1779,7 +1805,7 @@
       <c r="F51" s="9"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>97.5</v>
+        <v>102</v>
       </c>
       <c r="H51"/>
     </row>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
   <si>
     <t>GESAMT</t>
   </si>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,18 +1764,28 @@
     </row>
     <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+      <c r="B49" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="12">
+        <v>43283</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0.42708333333333331</v>
+      </c>
       <c r="G49">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="H49">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1805,7 +1815,7 @@
       <c r="F51" s="9"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>102</v>
+        <v>103.75</v>
       </c>
       <c r="H51"/>
     </row>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9617DCE5-FF90-4FBC-AC2B-49E288E68EA4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8385" yWindow="0" windowWidth="18270" windowHeight="7905"/>
+    <workbookView xWindow="8388" yWindow="0" windowWidth="18276" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teuchtmann" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
   <si>
     <t>GESAMT</t>
   </si>
@@ -170,10 +171,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -273,11 +274,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,7 +292,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -327,8 +328,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -369,21 +370,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle35" displayName="Tabelle35" ref="B6:H51" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle35" displayName="Tabelle35" ref="B6:H51" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -653,40 +654,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="24"/>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="21"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
         <v>22</v>
       </c>
@@ -709,7 +710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
@@ -734,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
@@ -759,7 +760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>2</v>
       </c>
@@ -784,7 +785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
         <v>2</v>
       </c>
@@ -809,7 +810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="14" t="s">
         <v>2</v>
@@ -835,7 +836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
@@ -860,7 +861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
@@ -885,7 +886,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>9</v>
       </c>
@@ -910,7 +911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>2</v>
       </c>
@@ -935,7 +936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
@@ -960,7 +961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>6</v>
       </c>
@@ -985,7 +986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>4</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>4</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>4</v>
       </c>
@@ -1135,7 +1136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>2</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
         <v>9</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="13" t="s">
         <v>2</v>
       </c>
@@ -1235,7 +1236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="13" t="s">
         <v>2</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>32</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
         <v>9</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
         <v>9</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
         <v>2</v>
       </c>
@@ -1360,7 +1361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33" s="13" t="s">
         <v>32</v>
       </c>
@@ -1385,7 +1386,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
         <v>2</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="13" t="s">
         <v>2</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
         <v>2</v>
       </c>
@@ -1460,7 +1461,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B37" s="13" t="s">
         <v>2</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
         <v>4</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="13" t="s">
         <v>4</v>
       </c>
@@ -1535,7 +1536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B40" s="13" t="s">
         <v>2</v>
       </c>
@@ -1560,7 +1561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B41" s="13" t="s">
         <v>9</v>
       </c>
@@ -1585,7 +1586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
         <v>9</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B43" s="13" t="s">
         <v>9</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B44" s="13" t="s">
         <v>9</v>
       </c>
@@ -1660,7 +1661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="13" t="s">
         <v>9</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B46" s="13" t="s">
         <v>9</v>
       </c>
@@ -1710,7 +1711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="13" t="s">
         <v>9</v>
@@ -1736,7 +1737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="13" t="s">
         <v>9</v>
@@ -1762,7 +1763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="13" t="s">
         <v>4</v>
@@ -1788,23 +1789,33 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
+      <c r="B50" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="12">
+        <v>43283</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0.625</v>
+      </c>
       <c r="G50">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H50">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="10" t="s">
         <v>0</v>
@@ -1815,11 +1826,11 @@
       <c r="F51" s="9"/>
       <c r="G51">
         <f>SUM(G7:G50)</f>
-        <v>103.75</v>
+        <v>105.75</v>
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -1828,7 +1839,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1837,7 +1848,7 @@
       <c r="G53"/>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="6"/>
       <c r="C54" s="2"/>
@@ -1846,7 +1857,7 @@
       <c r="G54"/>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1855,7 +1866,7 @@
       <c r="G55"/>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1864,7 +1875,7 @@
       <c r="G56"/>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1873,7 +1884,7 @@
       <c r="G57"/>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1882,7 +1893,7 @@
       <c r="G58"/>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1891,7 +1902,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1900,7 +1911,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1909,7 +1920,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1918,7 +1929,7 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1927,7 +1938,7 @@
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="8"/>
       <c r="C64" s="2"/>
@@ -1936,7 +1947,7 @@
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1945,7 +1956,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1954,7 +1965,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1963,7 +1974,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1972,7 +1983,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1981,7 +1992,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1990,7 +2001,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1999,7 +2010,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2008,7 +2019,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2017,7 +2028,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2026,7 +2037,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2035,7 +2046,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2044,7 +2055,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2053,7 +2064,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2062,7 +2073,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2071,7 +2082,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2080,7 +2091,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2089,7 +2100,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2098,7 +2109,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2107,7 +2118,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2116,7 +2127,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2125,7 +2136,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2134,7 +2145,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2143,7 +2154,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2152,7 +2163,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2161,7 +2172,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2170,7 +2181,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2179,7 +2190,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2188,7 +2199,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2197,7 +2208,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2206,7 +2217,7 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2215,7 +2226,7 @@
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="7"/>
       <c r="C96" s="2"/>
@@ -2224,7 +2235,7 @@
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2233,7 +2244,7 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2242,7 +2253,7 @@
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="6"/>
       <c r="C99" s="2"/>
@@ -2251,7 +2262,7 @@
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2260,7 +2271,7 @@
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -2269,7 +2280,7 @@
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2278,7 +2289,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2287,7 +2298,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2296,7 +2307,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2305,7 +2316,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2314,7 +2325,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2323,7 +2334,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2332,7 +2343,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2341,7 +2352,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2350,7 +2361,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2359,7 +2370,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2368,7 +2379,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2377,7 +2388,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2386,7 +2397,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2395,7 +2406,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2404,7 +2415,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2413,7 +2424,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2422,7 +2433,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2431,7 +2442,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2440,7 +2451,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2449,7 +2460,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2458,7 +2469,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2467,7 +2478,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2476,7 +2487,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2485,7 +2496,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2494,7 +2505,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2503,7 +2514,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2512,7 +2523,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2521,7 +2532,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2530,7 +2541,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2539,7 +2550,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2548,7 +2559,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2557,7 +2568,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2566,7 +2577,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2575,7 +2586,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2584,7 +2595,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2593,7 +2604,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2602,7 +2613,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2611,7 +2622,7 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2620,7 +2631,7 @@
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="7"/>
       <c r="C141" s="2"/>
@@ -2629,7 +2640,7 @@
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2638,7 +2649,7 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2647,7 +2658,7 @@
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
       <c r="B144" s="6"/>
       <c r="C144" s="2"/>
@@ -2656,7 +2667,7 @@
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2665,7 +2676,7 @@
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -2674,7 +2685,7 @@
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2683,7 +2694,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2692,7 +2703,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2701,7 +2712,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2710,7 +2721,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2719,7 +2730,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2728,7 +2739,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2737,7 +2748,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2746,7 +2757,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2755,7 +2766,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2764,7 +2775,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2773,7 +2784,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2782,7 +2793,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2791,7 +2802,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2800,7 +2811,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2809,7 +2820,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2818,7 +2829,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2827,7 +2838,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2836,7 +2847,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2845,7 +2856,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2854,7 +2865,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2863,7 +2874,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2872,7 +2883,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2881,7 +2892,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2890,7 +2901,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2899,7 +2910,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2908,7 +2919,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2917,7 +2928,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2926,7 +2937,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2935,7 +2946,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2944,7 +2955,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2953,7 +2964,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2962,7 +2973,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2971,7 +2982,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -2980,7 +2991,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -2989,7 +3000,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -2998,7 +3009,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -3007,7 +3018,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -3016,7 +3027,7 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -3025,7 +3036,7 @@
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="7"/>
       <c r="C186" s="2"/>
@@ -3034,7 +3045,7 @@
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -3043,7 +3054,7 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -3052,7 +3063,7 @@
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="2"/>
       <c r="B189" s="6"/>
       <c r="C189" s="2"/>
@@ -3061,7 +3072,7 @@
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -3070,7 +3081,7 @@
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -3079,7 +3090,7 @@
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -3088,7 +3099,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -3097,7 +3108,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -3106,7 +3117,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -3115,7 +3126,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -3124,7 +3135,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -3133,7 +3144,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -3142,7 +3153,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -3151,7 +3162,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -3160,7 +3171,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -3169,7 +3180,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -3178,7 +3189,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -3187,7 +3198,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -3196,7 +3207,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -3205,7 +3216,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -3214,7 +3225,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -3223,7 +3234,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3232,7 +3243,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3241,7 +3252,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3250,7 +3261,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3259,7 +3270,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3268,7 +3279,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3277,7 +3288,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3286,7 +3297,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3295,7 +3306,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3304,7 +3315,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3313,7 +3324,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3322,7 +3333,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3331,7 +3342,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3340,7 +3351,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -3349,7 +3360,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -3358,7 +3369,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -3367,34 +3378,34 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="3"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
       <c r="D226" s="3"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9617DCE5-FF90-4FBC-AC2B-49E288E68EA4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8388" yWindow="0" windowWidth="18276" windowHeight="7908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8385" yWindow="0" windowWidth="18270" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Teuchtmann" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
   <si>
     <t>GESAMT</t>
   </si>
@@ -166,15 +165,18 @@
   </si>
   <si>
     <t>Ausarbeiten der Funktionen: Personen, Projekte entfernen</t>
+  </si>
+  <si>
+    <t>Delete-Methoden überarbeitet (Darstellung nach Löschung)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -232,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,8 +253,14 @@
         <bgColor theme="5" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -271,14 +279,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,9 +324,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -326,10 +358,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -370,21 +413,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle35" displayName="Tabelle35" ref="B6:H51" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle35" displayName="Tabelle35" ref="B6:H57" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H57"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Dauer" dataDxfId="1">
+    <tableColumn id="2" name="Art"/>
+    <tableColumn id="3" name="Beschreibung"/>
+    <tableColumn id="8" name="Datum"/>
+    <tableColumn id="4" name="von"/>
+    <tableColumn id="5" name="bis"/>
+    <tableColumn id="15" name="Dauer" dataDxfId="0">
       <calculatedColumnFormula>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="KW" dataDxfId="0">
+    <tableColumn id="1" name="KW" dataDxfId="1">
       <calculatedColumnFormula>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -654,76 +697,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="75.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="24"/>
-      <c r="C3" s="23"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B3" s="22"/>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+      <c r="D4" s="19"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>43171</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>0.45833333333333331</v>
       </c>
       <c r="G7">
@@ -735,20 +778,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>43171</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <v>0.65625</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="13">
         <v>0.72916666666666663</v>
       </c>
       <c r="G8">
@@ -760,20 +803,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>43177</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <v>0.61458333333333337</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="13">
         <v>0.66666666666666663</v>
       </c>
       <c r="G9">
@@ -785,20 +828,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>43178</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <v>0.5</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <v>0.5625</v>
       </c>
       <c r="G10">
@@ -810,21 +853,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>43179</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>0.90625</v>
       </c>
       <c r="G11">
@@ -836,20 +879,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>43198</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <v>0.63541666666666663</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="13">
         <v>0.70833333333333337</v>
       </c>
       <c r="G12">
@@ -861,20 +904,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>43200</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="13">
         <v>0.90625</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <v>0.97916666666666663</v>
       </c>
       <c r="G13">
@@ -886,20 +929,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>43201</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <v>0.5625</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="13">
         <v>0.625</v>
       </c>
       <c r="G14">
@@ -911,20 +954,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>43201</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="13">
         <v>0.625</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="13">
         <v>0.66666666666666663</v>
       </c>
       <c r="G15">
@@ -936,20 +979,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>43202</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="13">
         <v>0.5</v>
       </c>
       <c r="G16">
@@ -961,20 +1004,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="10">
         <v>43205</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <v>0.66666666666666663</v>
       </c>
       <c r="G17">
@@ -986,20 +1029,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="14" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <v>43206</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="9">
         <v>0.5</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <v>0.58333333333333337</v>
       </c>
       <c r="G18">
@@ -1011,20 +1054,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="14" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="10">
         <v>43208</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="9">
         <v>0.52083333333333337</v>
       </c>
       <c r="G19">
@@ -1036,20 +1079,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="14" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <v>43209</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="9">
         <v>0.60416666666666663</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="9">
         <v>0.64583333333333337</v>
       </c>
       <c r="G20">
@@ -1061,20 +1104,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="14" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <v>43216</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="9">
         <v>0.5</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="9">
         <v>0.625</v>
       </c>
       <c r="G21">
@@ -1086,20 +1129,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <v>43221</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="9">
         <v>0.80208333333333337</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="9">
         <v>0.85416666666666663</v>
       </c>
       <c r="G22">
@@ -1111,20 +1154,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="10">
         <v>43222</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="9">
         <v>0.875</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="9">
         <v>0.97916666666666663</v>
       </c>
       <c r="G23">
@@ -1136,20 +1179,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="14" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="10">
         <v>43223</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="9">
         <v>0.54166666666666663</v>
       </c>
       <c r="G24">
@@ -1161,20 +1204,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="14" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="10">
         <v>43223</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="9">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="9">
         <v>0.63541666666666663</v>
       </c>
       <c r="G25">
@@ -1186,20 +1229,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="13" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <v>43234</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="9">
         <v>0.88541666666666663</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="9">
         <v>0.98958333333333337</v>
       </c>
       <c r="G26">
@@ -1211,20 +1254,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="13" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="10">
         <v>43235</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="9">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="9">
         <v>0.52083333333333337</v>
       </c>
       <c r="G27">
@@ -1236,20 +1279,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="13" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="10">
         <v>43237</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="9">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="9">
         <v>0.625</v>
       </c>
       <c r="G28">
@@ -1261,20 +1304,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="13" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="10">
         <v>43237</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="9">
         <v>0.75</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="9">
         <v>0.91666666666666663</v>
       </c>
       <c r="G29">
@@ -1286,20 +1329,20 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="13" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="10">
         <v>43241</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="9">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="9">
         <v>0.875</v>
       </c>
       <c r="G30">
@@ -1311,20 +1354,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="13" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="10">
         <v>43242</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="9">
         <v>0.48958333333333331</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="9">
         <v>0.64583333333333337</v>
       </c>
       <c r="G31">
@@ -1336,20 +1379,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="13" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="10">
         <v>43243</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="9">
         <v>0.60416666666666663</v>
       </c>
       <c r="G32">
@@ -1361,20 +1404,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="13" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="10">
         <v>43243</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="9">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="9">
         <v>0.95833333333333337</v>
       </c>
       <c r="G33">
@@ -1386,20 +1429,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="13" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="10">
         <v>43244</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="9">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="9">
         <v>0.58333333333333337</v>
       </c>
       <c r="G34">
@@ -1411,20 +1454,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="13" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="10">
         <v>43253</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="9">
         <v>0.625</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="9">
         <v>0.72916666666666663</v>
       </c>
       <c r="G35">
@@ -1436,20 +1479,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="13" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="10">
         <v>43256</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="9">
         <v>0.5</v>
       </c>
       <c r="G36">
@@ -1461,20 +1504,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="13" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="10">
         <v>43258</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="9">
         <v>0.5</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="9">
         <v>0.58333333333333337</v>
       </c>
       <c r="G37">
@@ -1486,20 +1529,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="13" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="10">
         <v>43262</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="9">
         <v>0.85416666666666663</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="9">
         <v>0.95833333333333337</v>
       </c>
       <c r="G38">
@@ -1511,20 +1554,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="13" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="10">
         <v>43263</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="9">
         <v>0.38541666666666669</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="9">
         <v>0.57291666666666663</v>
       </c>
       <c r="G39">
@@ -1536,120 +1579,120 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="13" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="10">
         <v>43265</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="9">
         <v>0.625</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="9">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="23">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>1</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="23">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="13" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="10">
         <v>43266</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="9">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="9">
         <v>0.92708333333333337</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="23">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>3.75</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H41" s="23">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="13" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="10">
         <v>43267</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="9">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="23">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>1.5</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H42" s="23">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="13" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="10">
         <v>43267</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="9">
         <v>0.8125</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="9">
         <v>0.91666666666666663</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G43" s="23">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>2.5</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H43" s="23">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="13" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="10">
         <v>43268</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="9">
         <v>0.57291666666666663</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="9">
         <v>0.76041666666666663</v>
       </c>
       <c r="G44">
@@ -1661,45 +1704,45 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="13" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="10">
         <v>43269</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="9">
         <v>0.67708333333333337</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="9">
         <v>0.77083333333333337</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="23">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>2.25</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H45" s="23">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="13" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="10">
         <v>43275</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="9">
         <v>0.8125</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="9">
         <v>0.89583333333333337</v>
       </c>
       <c r="G46">
@@ -1711,47 +1754,47 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="10">
         <v>43279</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="9">
         <v>0.6875</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="9">
         <v>0.75</v>
       </c>
-      <c r="G47" s="25">
+      <c r="G47" s="23">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>1.5</v>
       </c>
-      <c r="H47" s="25">
+      <c r="H47" s="23">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="10">
         <v>43280</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="9">
         <v>0.5</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="9">
         <v>0.625</v>
       </c>
       <c r="G48">
@@ -1763,21 +1806,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="10">
         <v>43283</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="9">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="9">
         <v>0.42708333333333331</v>
       </c>
       <c r="G49">
@@ -1789,21 +1832,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="10">
         <v>43283</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="9">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="9">
         <v>0.625</v>
       </c>
       <c r="G50">
@@ -1815,85 +1858,144 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="10" t="s">
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="28">
+        <v>43283</v>
+      </c>
+      <c r="E51" s="29">
+        <v>0.6875</v>
+      </c>
+      <c r="F51" s="30">
+        <v>0.8125</v>
+      </c>
+      <c r="G51" s="23">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>3</v>
+      </c>
+      <c r="H51" s="23">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="23">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51">
-        <f>SUM(G7:G50)</f>
-        <v>105.75</v>
-      </c>
-      <c r="H51"/>
-    </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-    </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H52" s="23">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="B53" s="6"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-    </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="E53" s="29"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="23">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="23">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="6"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-    </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="29"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="23">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="23">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-    </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="23">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="23">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="4"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-    </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="23">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="23">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="3"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-    </row>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="29"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="23">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="23">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="3"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-    </row>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="26">
+        <f>SUM(G7:G57)</f>
+        <v>108.75</v>
+      </c>
+      <c r="H58" s="27"/>
+    </row>
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1902,7 +2004,7 @@
       <c r="G59"/>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1911,7 +2013,7 @@
       <c r="G60"/>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1920,7 +2022,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1929,25 +2031,25 @@
       <c r="G62"/>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="2"/>
       <c r="D63" s="3"/>
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63"/>
     </row>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="8"/>
+      <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64"/>
     </row>
-    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1956,7 +2058,7 @@
       <c r="G65"/>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1965,7 +2067,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1974,7 +2076,7 @@
       <c r="G67"/>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1983,7 +2085,7 @@
       <c r="G68"/>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1992,7 +2094,7 @@
       <c r="G69"/>
       <c r="H69"/>
     </row>
-    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2001,7 +2103,7 @@
       <c r="G70"/>
       <c r="H70"/>
     </row>
-    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2010,7 +2112,7 @@
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2019,7 +2121,7 @@
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2028,7 +2130,7 @@
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2037,7 +2139,7 @@
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2046,7 +2148,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2055,7 +2157,7 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2064,7 +2166,7 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2073,7 +2175,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2082,7 +2184,7 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2091,7 +2193,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2100,7 +2202,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2109,7 +2211,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2118,7 +2220,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2127,7 +2229,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2136,7 +2238,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2145,7 +2247,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2154,7 +2256,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2163,7 +2265,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2172,7 +2274,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2181,7 +2283,7 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2190,7 +2292,7 @@
       <c r="G91"/>
       <c r="H91"/>
     </row>
-    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2199,7 +2301,7 @@
       <c r="G92"/>
       <c r="H92"/>
     </row>
-    <row r="93" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2208,7 +2310,7 @@
       <c r="G93"/>
       <c r="H93"/>
     </row>
-    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2217,25 +2319,25 @@
       <c r="G94"/>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
+      <c r="B95" s="7"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
       <c r="F95"/>
       <c r="G95"/>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-      <c r="B96" s="7"/>
+      <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="3"/>
+      <c r="D96" s="2"/>
       <c r="F96"/>
       <c r="G96"/>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2244,43 +2346,43 @@
       <c r="G97"/>
       <c r="H97"/>
     </row>
-    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
+      <c r="B98" s="6"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="F98"/>
       <c r="G98"/>
       <c r="H98"/>
     </row>
-    <row r="99" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
-      <c r="B99" s="6"/>
+      <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="F99"/>
       <c r="G99"/>
       <c r="H99"/>
     </row>
-    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="4"/>
       <c r="F100"/>
       <c r="G100"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="4"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="3"/>
       <c r="F101"/>
       <c r="G101"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2289,7 +2391,7 @@
       <c r="G102"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2298,7 +2400,7 @@
       <c r="G103"/>
       <c r="H103"/>
     </row>
-    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2307,7 +2409,7 @@
       <c r="G104"/>
       <c r="H104"/>
     </row>
-    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2316,7 +2418,7 @@
       <c r="G105"/>
       <c r="H105"/>
     </row>
-    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2325,7 +2427,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2334,7 +2436,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2343,7 +2445,7 @@
       <c r="G108"/>
       <c r="H108"/>
     </row>
-    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2352,7 +2454,7 @@
       <c r="G109"/>
       <c r="H109"/>
     </row>
-    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2361,7 +2463,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2370,7 +2472,7 @@
       <c r="G111"/>
       <c r="H111"/>
     </row>
-    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2379,7 +2481,7 @@
       <c r="G112"/>
       <c r="H112"/>
     </row>
-    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2388,7 +2490,7 @@
       <c r="G113"/>
       <c r="H113"/>
     </row>
-    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2397,7 +2499,7 @@
       <c r="G114"/>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2406,7 +2508,7 @@
       <c r="G115"/>
       <c r="H115"/>
     </row>
-    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2415,7 +2517,7 @@
       <c r="G116"/>
       <c r="H116"/>
     </row>
-    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2424,7 +2526,7 @@
       <c r="G117"/>
       <c r="H117"/>
     </row>
-    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2433,7 +2535,7 @@
       <c r="G118"/>
       <c r="H118"/>
     </row>
-    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2442,7 +2544,7 @@
       <c r="G119"/>
       <c r="H119"/>
     </row>
-    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2451,7 +2553,7 @@
       <c r="G120"/>
       <c r="H120"/>
     </row>
-    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2460,7 +2562,7 @@
       <c r="G121"/>
       <c r="H121"/>
     </row>
-    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2469,7 +2571,7 @@
       <c r="G122"/>
       <c r="H122"/>
     </row>
-    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2478,7 +2580,7 @@
       <c r="G123"/>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2487,7 +2589,7 @@
       <c r="G124"/>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2496,7 +2598,7 @@
       <c r="G125"/>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2505,7 +2607,7 @@
       <c r="G126"/>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2514,7 +2616,7 @@
       <c r="G127"/>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2523,7 +2625,7 @@
       <c r="G128"/>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2532,7 +2634,7 @@
       <c r="G129"/>
       <c r="H129"/>
     </row>
-    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2541,7 +2643,7 @@
       <c r="G130"/>
       <c r="H130"/>
     </row>
-    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2550,7 +2652,7 @@
       <c r="G131"/>
       <c r="H131"/>
     </row>
-    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2559,7 +2661,7 @@
       <c r="G132"/>
       <c r="H132"/>
     </row>
-    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2568,7 +2670,7 @@
       <c r="G133"/>
       <c r="H133"/>
     </row>
-    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2577,7 +2679,7 @@
       <c r="G134"/>
       <c r="H134"/>
     </row>
-    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2586,7 +2688,7 @@
       <c r="G135"/>
       <c r="H135"/>
     </row>
-    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2595,7 +2697,7 @@
       <c r="G136"/>
       <c r="H136"/>
     </row>
-    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2604,7 +2706,7 @@
       <c r="G137"/>
       <c r="H137"/>
     </row>
-    <row r="138" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2613,7 +2715,7 @@
       <c r="G138"/>
       <c r="H138"/>
     </row>
-    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2622,25 +2724,25 @@
       <c r="G139"/>
       <c r="H139"/>
     </row>
-    <row r="140" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
+      <c r="B140" s="7"/>
       <c r="C140" s="2"/>
       <c r="D140" s="3"/>
       <c r="F140"/>
       <c r="G140"/>
       <c r="H140"/>
     </row>
-    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
-      <c r="B141" s="7"/>
+      <c r="B141" s="2"/>
       <c r="C141" s="2"/>
-      <c r="D141" s="3"/>
+      <c r="D141" s="2"/>
       <c r="F141"/>
       <c r="G141"/>
       <c r="H141"/>
     </row>
-    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2649,43 +2751,43 @@
       <c r="G142"/>
       <c r="H142"/>
     </row>
-    <row r="143" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
+      <c r="B143" s="6"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="F143"/>
       <c r="G143"/>
       <c r="H143"/>
     </row>
-    <row r="144" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
-      <c r="B144" s="6"/>
+      <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="F144"/>
       <c r="G144"/>
       <c r="H144"/>
     </row>
-    <row r="145" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
+      <c r="B145" s="5"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="4"/>
       <c r="F145"/>
       <c r="G145"/>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="4"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="3"/>
       <c r="F146"/>
       <c r="G146"/>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2694,7 +2796,7 @@
       <c r="G147"/>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2703,7 +2805,7 @@
       <c r="G148"/>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2712,7 +2814,7 @@
       <c r="G149"/>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2721,7 +2823,7 @@
       <c r="G150"/>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2730,7 +2832,7 @@
       <c r="G151"/>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2739,7 +2841,7 @@
       <c r="G152"/>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2748,7 +2850,7 @@
       <c r="G153"/>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2757,7 +2859,7 @@
       <c r="G154"/>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2766,7 +2868,7 @@
       <c r="G155"/>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2775,7 +2877,7 @@
       <c r="G156"/>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2784,7 +2886,7 @@
       <c r="G157"/>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2793,7 +2895,7 @@
       <c r="G158"/>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2802,7 +2904,7 @@
       <c r="G159"/>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2811,7 +2913,7 @@
       <c r="G160"/>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2820,7 +2922,7 @@
       <c r="G161"/>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2829,7 +2931,7 @@
       <c r="G162"/>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2838,7 +2940,7 @@
       <c r="G163"/>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2847,7 +2949,7 @@
       <c r="G164"/>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2856,7 +2958,7 @@
       <c r="G165"/>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2865,7 +2967,7 @@
       <c r="G166"/>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2874,7 +2976,7 @@
       <c r="G167"/>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2883,7 +2985,7 @@
       <c r="G168"/>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2892,7 +2994,7 @@
       <c r="G169"/>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2901,7 +3003,7 @@
       <c r="G170"/>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2910,7 +3012,7 @@
       <c r="G171"/>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2919,7 +3021,7 @@
       <c r="G172"/>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -2928,7 +3030,7 @@
       <c r="G173"/>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -2937,7 +3039,7 @@
       <c r="G174"/>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -2946,7 +3048,7 @@
       <c r="G175"/>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -2955,7 +3057,7 @@
       <c r="G176"/>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -2964,7 +3066,7 @@
       <c r="G177"/>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -2973,7 +3075,7 @@
       <c r="G178"/>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -2982,7 +3084,7 @@
       <c r="G179"/>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -2991,7 +3093,7 @@
       <c r="G180"/>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -3000,7 +3102,7 @@
       <c r="G181"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -3009,7 +3111,7 @@
       <c r="G182"/>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -3018,7 +3120,7 @@
       <c r="G183"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -3027,25 +3129,25 @@
       <c r="G184"/>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
+      <c r="B185" s="7"/>
       <c r="C185" s="2"/>
       <c r="D185" s="3"/>
       <c r="F185"/>
       <c r="G185"/>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
-      <c r="B186" s="7"/>
+      <c r="B186" s="2"/>
       <c r="C186" s="2"/>
-      <c r="D186" s="3"/>
+      <c r="D186" s="2"/>
       <c r="F186"/>
       <c r="G186"/>
       <c r="H186"/>
     </row>
-    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -3054,43 +3156,43 @@
       <c r="G187"/>
       <c r="H187"/>
     </row>
-    <row r="188" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
+      <c r="B188" s="6"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="F188"/>
       <c r="G188"/>
       <c r="H188"/>
     </row>
-    <row r="189" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
-      <c r="B189" s="6"/>
+      <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="F189"/>
       <c r="G189"/>
       <c r="H189"/>
     </row>
-    <row r="190" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="4"/>
       <c r="F190"/>
       <c r="G190"/>
       <c r="H190"/>
     </row>
-    <row r="191" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
-      <c r="B191" s="5"/>
-      <c r="C191" s="5"/>
-      <c r="D191" s="4"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="3"/>
       <c r="F191"/>
       <c r="G191"/>
       <c r="H191"/>
     </row>
-    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -3099,7 +3201,7 @@
       <c r="G192"/>
       <c r="H192"/>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -3108,7 +3210,7 @@
       <c r="G193"/>
       <c r="H193"/>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -3117,7 +3219,7 @@
       <c r="G194"/>
       <c r="H194"/>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -3126,7 +3228,7 @@
       <c r="G195"/>
       <c r="H195"/>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -3135,7 +3237,7 @@
       <c r="G196"/>
       <c r="H196"/>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -3144,7 +3246,7 @@
       <c r="G197"/>
       <c r="H197"/>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -3153,7 +3255,7 @@
       <c r="G198"/>
       <c r="H198"/>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -3162,7 +3264,7 @@
       <c r="G199"/>
       <c r="H199"/>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -3171,7 +3273,7 @@
       <c r="G200"/>
       <c r="H200"/>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -3180,7 +3282,7 @@
       <c r="G201"/>
       <c r="H201"/>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -3189,7 +3291,7 @@
       <c r="G202"/>
       <c r="H202"/>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -3198,7 +3300,7 @@
       <c r="G203"/>
       <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -3207,7 +3309,7 @@
       <c r="G204"/>
       <c r="H204"/>
     </row>
-    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -3216,7 +3318,7 @@
       <c r="G205"/>
       <c r="H205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -3225,7 +3327,7 @@
       <c r="G206"/>
       <c r="H206"/>
     </row>
-    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -3234,7 +3336,7 @@
       <c r="G207"/>
       <c r="H207"/>
     </row>
-    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3243,7 +3345,7 @@
       <c r="G208"/>
       <c r="H208"/>
     </row>
-    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3252,7 +3354,7 @@
       <c r="G209"/>
       <c r="H209"/>
     </row>
-    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3261,7 +3363,7 @@
       <c r="G210"/>
       <c r="H210"/>
     </row>
-    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3270,7 +3372,7 @@
       <c r="G211"/>
       <c r="H211"/>
     </row>
-    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3279,7 +3381,7 @@
       <c r="G212"/>
       <c r="H212"/>
     </row>
-    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3288,7 +3390,7 @@
       <c r="G213"/>
       <c r="H213"/>
     </row>
-    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3297,7 +3399,7 @@
       <c r="G214"/>
       <c r="H214"/>
     </row>
-    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3306,7 +3408,7 @@
       <c r="G215"/>
       <c r="H215"/>
     </row>
-    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3315,7 +3417,7 @@
       <c r="G216"/>
       <c r="H216"/>
     </row>
-    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3324,7 +3426,7 @@
       <c r="G217"/>
       <c r="H217"/>
     </row>
-    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -3333,7 +3435,7 @@
       <c r="G218"/>
       <c r="H218"/>
     </row>
-    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -3342,7 +3444,7 @@
       <c r="G219"/>
       <c r="H219"/>
     </row>
-    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -3351,7 +3453,7 @@
       <c r="G220"/>
       <c r="H220"/>
     </row>
-    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -3360,7 +3462,7 @@
       <c r="G221"/>
       <c r="H221"/>
     </row>
-    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -3369,7 +3471,7 @@
       <c r="G222"/>
       <c r="H222"/>
     </row>
-    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -3378,38 +3480,34 @@
       <c r="G223"/>
       <c r="H223"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
       <c r="D224" s="3"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
       <c r="D225" s="3"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="3"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
   <si>
     <t>GESAMT</t>
   </si>
@@ -168,15 +168,19 @@
   </si>
   <si>
     <t>Delete-Methoden überarbeitet (Darstellung nach Löschung)</t>
+  </si>
+  <si>
+    <t>Benutzerdokumentation erstellen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -310,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -362,11 +366,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -424,10 +440,10 @@
     <tableColumn id="8" name="Datum"/>
     <tableColumn id="4" name="von"/>
     <tableColumn id="5" name="bis"/>
-    <tableColumn id="15" name="Dauer" dataDxfId="0">
+    <tableColumn id="15" name="Dauer" dataDxfId="1">
       <calculatedColumnFormula>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" name="KW" dataDxfId="1">
+    <tableColumn id="1" name="KW" dataDxfId="0">
       <calculatedColumnFormula>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -700,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,13 +1882,13 @@
       <c r="C51" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="28">
+      <c r="D51" s="33">
         <v>43283</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="28">
         <v>0.6875</v>
       </c>
-      <c r="F51" s="30">
+      <c r="F51" s="29">
         <v>0.8125</v>
       </c>
       <c r="G51" s="23">
@@ -1886,43 +1902,63 @@
     </row>
     <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="30"/>
+      <c r="B52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="34">
+        <v>43283</v>
+      </c>
+      <c r="E52" s="28">
+        <v>0.875</v>
+      </c>
+      <c r="F52" s="29">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G52" s="23">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52" s="23">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="30"/>
+      <c r="B53" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="32">
+        <v>43284</v>
+      </c>
+      <c r="E53" s="28">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F53" s="29">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="G53" s="23">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H53" s="23">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="30"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="29"/>
       <c r="G54" s="23">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
@@ -1934,11 +1970,11 @@
     </row>
     <row r="55" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="5"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="30"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="29"/>
       <c r="G55" s="23">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
@@ -1950,11 +1986,11 @@
     </row>
     <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="30"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="29"/>
       <c r="G56" s="23">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
@@ -1966,11 +2002,11 @@
     </row>
     <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="30"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="29"/>
       <c r="G57" s="23">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>0</v>
@@ -1991,7 +2027,7 @@
       <c r="F58" s="24"/>
       <c r="G58" s="26">
         <f>SUM(G7:G57)</f>
-        <v>108.75</v>
+        <v>114.75</v>
       </c>
       <c r="H58" s="27"/>
     </row>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="49">
   <si>
     <t>GESAMT</t>
   </si>
@@ -373,9 +373,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,6 +380,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +725,7 @@
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1882,7 +1882,7 @@
       <c r="C51" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="33">
+      <c r="D51" s="32">
         <v>43283</v>
       </c>
       <c r="E51" s="28">
@@ -1908,7 +1908,7 @@
       <c r="C52" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="34">
+      <c r="D52" s="33">
         <v>43283</v>
       </c>
       <c r="E52" s="28">
@@ -1934,18 +1934,18 @@
       <c r="C53" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="32">
+      <c r="D53" s="31">
         <v>43284</v>
       </c>
       <c r="E53" s="28">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="F53" s="29">
         <v>0.58333333333333337</v>
       </c>
       <c r="G53" s="23">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H53" s="23">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
@@ -1954,25 +1954,35 @@
     </row>
     <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="29"/>
+      <c r="B54" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="31">
+        <v>43284</v>
+      </c>
+      <c r="E54" s="28">
+        <v>0.625</v>
+      </c>
+      <c r="F54" s="29">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G54" s="23">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H54" s="23">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="31"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="34"/>
       <c r="E55" s="28"/>
       <c r="F55" s="29"/>
       <c r="G55" s="23">
@@ -1988,7 +1998,7 @@
       <c r="A56" s="2"/>
       <c r="B56" s="30"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="32"/>
+      <c r="D56" s="31"/>
       <c r="E56" s="28"/>
       <c r="F56" s="29"/>
       <c r="G56" s="23">
@@ -2004,7 +2014,7 @@
       <c r="A57" s="2"/>
       <c r="B57" s="30"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="32"/>
+      <c r="D57" s="31"/>
       <c r="E57" s="28"/>
       <c r="F57" s="29"/>
       <c r="G57" s="23">
@@ -2027,7 +2037,7 @@
       <c r="F58" s="24"/>
       <c r="G58" s="26">
         <f>SUM(G7:G57)</f>
-        <v>114.75</v>
+        <v>120.75</v>
       </c>
       <c r="H58" s="27"/>
     </row>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
   <si>
     <t>GESAMT</t>
   </si>
@@ -171,6 +171,18 @@
   </si>
   <si>
     <t>Benutzerdokumentation erstellen</t>
+  </si>
+  <si>
+    <t>Testen</t>
+  </si>
+  <si>
+    <t>Durchführung der Testfälle für Release 3</t>
+  </si>
+  <si>
+    <t>Benutzerdokumentation aktualisieren</t>
+  </si>
+  <si>
+    <t>Systemdokumentation fertigstellen</t>
   </si>
 </sst>
 </file>
@@ -314,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -327,7 +339,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -429,8 +440,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle35" displayName="Tabelle35" ref="B6:H57" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle35" displayName="Tabelle35" ref="B6:H63" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H63"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
@@ -716,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,58 +742,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="22"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>43171</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>0.45833333333333331</v>
       </c>
       <c r="G7">
@@ -795,19 +806,19 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>43171</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>0.65625</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>0.72916666666666663</v>
       </c>
       <c r="G8">
@@ -820,19 +831,19 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>43177</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>0.61458333333333337</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>0.66666666666666663</v>
       </c>
       <c r="G9">
@@ -845,19 +856,19 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>43178</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>0.5</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>0.5625</v>
       </c>
       <c r="G10">
@@ -870,20 +881,20 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>43179</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>0.90625</v>
       </c>
       <c r="G11">
@@ -896,19 +907,19 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>43198</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>0.63541666666666663</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="12">
         <v>0.70833333333333337</v>
       </c>
       <c r="G12">
@@ -921,19 +932,19 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>43200</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>0.90625</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>0.97916666666666663</v>
       </c>
       <c r="G13">
@@ -946,19 +957,19 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>43201</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>0.5625</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>0.625</v>
       </c>
       <c r="G14">
@@ -971,19 +982,19 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>43201</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>0.625</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>0.66666666666666663</v>
       </c>
       <c r="G15">
@@ -996,19 +1007,19 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>43202</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="12">
         <v>0.5</v>
       </c>
       <c r="G16">
@@ -1021,19 +1032,19 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>43205</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>0.66666666666666663</v>
       </c>
       <c r="G17">
@@ -1046,19 +1057,19 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>43206</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>0.5</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="G18">
@@ -1071,19 +1082,19 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>43208</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>0.52083333333333337</v>
       </c>
       <c r="G19">
@@ -1096,19 +1107,19 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>43209</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>0.60416666666666663</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>0.64583333333333337</v>
       </c>
       <c r="G20">
@@ -1121,19 +1132,19 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>43216</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>0.5</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>0.625</v>
       </c>
       <c r="G21">
@@ -1146,19 +1157,19 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>43221</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>0.80208333333333337</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>0.85416666666666663</v>
       </c>
       <c r="G22">
@@ -1171,19 +1182,19 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>43222</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>0.875</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>0.97916666666666663</v>
       </c>
       <c r="G23">
@@ -1196,19 +1207,19 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>43223</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>0.54166666666666663</v>
       </c>
       <c r="G24">
@@ -1221,19 +1232,19 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>43223</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>0.63541666666666663</v>
       </c>
       <c r="G25">
@@ -1246,19 +1257,19 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>43234</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>0.88541666666666663</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>0.98958333333333337</v>
       </c>
       <c r="G26">
@@ -1271,19 +1282,19 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>43235</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>0.39583333333333331</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>0.52083333333333337</v>
       </c>
       <c r="G27">
@@ -1296,19 +1307,19 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>43237</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>0.625</v>
       </c>
       <c r="G28">
@@ -1321,19 +1332,19 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>43237</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>0.75</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <v>0.91666666666666663</v>
       </c>
       <c r="G29">
@@ -1346,19 +1357,19 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>43241</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>0.875</v>
       </c>
       <c r="G30">
@@ -1371,19 +1382,19 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <v>43242</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>0.48958333333333331</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <v>0.64583333333333337</v>
       </c>
       <c r="G31">
@@ -1396,19 +1407,19 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>43243</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <v>0.60416666666666663</v>
       </c>
       <c r="G32">
@@ -1421,19 +1432,19 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <v>43243</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <v>0.95833333333333337</v>
       </c>
       <c r="G33">
@@ -1446,19 +1457,19 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>43244</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="G34">
@@ -1471,19 +1482,19 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>43253</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>0.625</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <v>0.72916666666666663</v>
       </c>
       <c r="G35">
@@ -1496,19 +1507,19 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <v>43256</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <v>0.5</v>
       </c>
       <c r="G36">
@@ -1521,19 +1532,19 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <v>43258</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>0.5</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="G37">
@@ -1546,19 +1557,19 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="9">
         <v>43262</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>0.85416666666666663</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <v>0.95833333333333337</v>
       </c>
       <c r="G38">
@@ -1571,19 +1582,19 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="9">
         <v>43263</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>0.38541666666666669</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="8">
         <v>0.57291666666666663</v>
       </c>
       <c r="G39">
@@ -1596,119 +1607,119 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <v>43265</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>0.625</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="22">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>1</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="22">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="9">
         <v>43266</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="8">
         <v>0.92708333333333337</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="22">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>3.75</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="22">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <v>43267</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="22">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>1.5</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="22">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>43267</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <v>0.8125</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="8">
         <v>0.91666666666666663</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="22">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>2.5</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="22">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <v>43268</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <v>0.57291666666666663</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="8">
         <v>0.76041666666666663</v>
       </c>
       <c r="G44">
@@ -1721,44 +1732,44 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <v>43269</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="8">
         <v>0.67708333333333337</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="8">
         <v>0.77083333333333337</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G45" s="22">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>2.25</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="22">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <v>43275</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>0.8125</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="8">
         <v>0.89583333333333337</v>
       </c>
       <c r="G46">
@@ -1772,45 +1783,45 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="9">
         <v>43279</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="8">
         <v>0.6875</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="8">
         <v>0.75</v>
       </c>
-      <c r="G47" s="23">
+      <c r="G47" s="22">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>1.5</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="22">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="9">
         <v>43280</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="8">
         <v>0.5</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="8">
         <v>0.625</v>
       </c>
       <c r="G48">
@@ -1824,19 +1835,19 @@
     </row>
     <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="9">
         <v>43283</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="8">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="8">
         <v>0.42708333333333331</v>
       </c>
       <c r="G49">
@@ -1850,19 +1861,19 @@
     </row>
     <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="9">
         <v>43283</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="8">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="8">
         <v>0.625</v>
       </c>
       <c r="G50">
@@ -1882,20 +1893,20 @@
       <c r="C51" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="32">
+      <c r="D51" s="31">
         <v>43283</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="27">
         <v>0.6875</v>
       </c>
-      <c r="F51" s="29">
+      <c r="F51" s="28">
         <v>0.8125</v>
       </c>
-      <c r="G51" s="23">
+      <c r="G51" s="22">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>3</v>
       </c>
-      <c r="H51" s="23">
+      <c r="H51" s="22">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>27</v>
       </c>
@@ -1908,192 +1919,228 @@
       <c r="C52" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="33">
+      <c r="D52" s="32">
         <v>43283</v>
       </c>
-      <c r="E52" s="28">
+      <c r="E52" s="27">
         <v>0.875</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F52" s="28">
         <v>0.95833333333333337</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="22">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>2</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="22">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="31">
+      <c r="D53" s="30">
         <v>43284</v>
       </c>
-      <c r="E53" s="28">
+      <c r="E53" s="27">
         <v>0.375</v>
       </c>
-      <c r="F53" s="29">
+      <c r="F53" s="28">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="22">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>5</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H53" s="22">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="29" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="31">
+      <c r="D54" s="30">
         <v>43284</v>
       </c>
-      <c r="E54" s="28">
+      <c r="E54" s="27">
         <v>0.625</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="28">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="22">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
         <v>5</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="22">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
         <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="23">
-        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="23">
-        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+      <c r="B55" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="33">
+        <v>43284</v>
+      </c>
+      <c r="E55" s="27">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F55" s="28">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="G55" s="22">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H55" s="22">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="23">
-        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="23">
-        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+      <c r="B56" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="30">
+        <v>43285</v>
+      </c>
+      <c r="E56" s="27">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F56" s="28">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G56" s="22">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>3</v>
+      </c>
+      <c r="H56" s="22">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="23">
-        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="23">
-        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+      <c r="B57" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="30">
+        <v>43285</v>
+      </c>
+      <c r="E57" s="27">
+        <v>0.875</v>
+      </c>
+      <c r="F57" s="28">
+        <v>0.9375</v>
+      </c>
+      <c r="G57" s="22">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>1.5</v>
+      </c>
+      <c r="H57" s="22">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="26">
-        <f>SUM(G7:G57)</f>
-        <v>120.75</v>
-      </c>
-      <c r="H58" s="27"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
     </row>
     <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="3"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
     </row>
     <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="3"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
     </row>
     <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="B61" s="29"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="3"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
     </row>
     <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="3"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
     </row>
     <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="8"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
     </row>
     <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="3"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
+      <c r="B64" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="25">
+        <f>SUM(G7:G63)</f>
+        <v>126.75</v>
+      </c>
+      <c r="H64" s="26"/>
     </row>
     <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="54">
   <si>
     <t>GESAMT</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Systemdokumentation fertigstellen</t>
+  </si>
+  <si>
+    <t>Erfahrungsbereicht erstellen</t>
   </si>
 </sst>
 </file>
@@ -728,7 +731,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2053,10 +2056,10 @@
         <v>43285</v>
       </c>
       <c r="E57" s="27">
-        <v>0.875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="F57" s="28">
-        <v>0.9375</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="G57" s="22">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
@@ -2069,23 +2072,51 @@
     </row>
     <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
+      <c r="B58" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="30">
+        <v>43285</v>
+      </c>
+      <c r="E58" s="27">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F58" s="28">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="G58" s="22">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>3.25</v>
+      </c>
+      <c r="H58" s="22">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>27</v>
+      </c>
     </row>
     <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="30"/>
+      <c r="B59" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="30">
+        <v>43286</v>
+      </c>
       <c r="E59" s="27"/>
       <c r="F59" s="28"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
+      <c r="G59" s="22">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="22">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>27</v>
+      </c>
     </row>
     <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
@@ -2094,8 +2125,14 @@
       <c r="D60" s="30"/>
       <c r="E60" s="27"/>
       <c r="F60" s="28"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
+      <c r="G60" s="22">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="22">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
@@ -2104,8 +2141,14 @@
       <c r="D61" s="30"/>
       <c r="E61" s="27"/>
       <c r="F61" s="28"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
+      <c r="G61" s="22">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="22">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
@@ -2114,8 +2157,14 @@
       <c r="D62" s="30"/>
       <c r="E62" s="27"/>
       <c r="F62" s="28"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
+      <c r="G62" s="22">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="22">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
@@ -2124,8 +2173,14 @@
       <c r="D63" s="30"/>
       <c r="E63" s="27"/>
       <c r="F63" s="28"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
+      <c r="G63" s="22">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="22">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
@@ -2138,7 +2193,7 @@
       <c r="F64" s="23"/>
       <c r="G64" s="25">
         <f>SUM(G7:G63)</f>
-        <v>126.75</v>
+        <v>130</v>
       </c>
       <c r="H64" s="26"/>
     </row>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -731,7 +731,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,11 +2107,15 @@
       <c r="D59" s="30">
         <v>43286</v>
       </c>
-      <c r="E59" s="27"/>
-      <c r="F59" s="28"/>
+      <c r="E59" s="27">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F59" s="28">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="G59" s="22">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H59" s="22">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
@@ -2193,7 +2197,7 @@
       <c r="F64" s="23"/>
       <c r="G64" s="25">
         <f>SUM(G7:G63)</f>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H64" s="26"/>
     </row>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
   <si>
     <t>GESAMT</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>Erfahrungsbereicht erstellen</t>
+  </si>
+  <si>
+    <t>Recherche zur Funktionalität von JFreeChart</t>
+  </si>
+  <si>
+    <t>Reports für Projekte und Aufgabenbereiche als Kreisdiagramm</t>
   </si>
 </sst>
 </file>
@@ -731,7 +737,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,34 +2130,54 @@
     </row>
     <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="28"/>
+      <c r="B60" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="30">
+        <v>43295</v>
+      </c>
+      <c r="E60" s="27">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F60" s="28">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="G60" s="22">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H60" s="22">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="28"/>
+      <c r="B61" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="30">
+        <v>43297</v>
+      </c>
+      <c r="E61" s="27">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F61" s="28">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="G61" s="22">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H61" s="22">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2197,7 +2223,7 @@
       <c r="F64" s="23"/>
       <c r="G64" s="25">
         <f>SUM(G7:G63)</f>
-        <v>132</v>
+        <v>137.5</v>
       </c>
       <c r="H64" s="26"/>
     </row>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
   <si>
     <t>GESAMT</t>
   </si>
@@ -737,7 +737,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,11 +2143,11 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="F60" s="28">
-        <v>0.77083333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="G60" s="22">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H60" s="22">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
@@ -2182,18 +2182,28 @@
     </row>
     <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="28"/>
+      <c r="B62" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="30">
+        <v>43298</v>
+      </c>
+      <c r="E62" s="27">
+        <v>0.625</v>
+      </c>
+      <c r="F62" s="28">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="G62" s="22">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H62" s="22">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2223,7 +2233,7 @@
       <c r="F64" s="23"/>
       <c r="G64" s="25">
         <f>SUM(G7:G63)</f>
-        <v>137.5</v>
+        <v>139.5</v>
       </c>
       <c r="H64" s="26"/>
     </row>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="57">
   <si>
     <t>GESAMT</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Reports für Projekte und Aufgabenbereiche als Kreisdiagramm</t>
+  </si>
+  <si>
+    <t>Reports für Projekte und Personen als Balkendiagramm</t>
   </si>
 </sst>
 </file>
@@ -449,8 +452,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle35" displayName="Tabelle35" ref="B6:H63" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B6:H63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle35" displayName="Tabelle35" ref="B6:H66" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B6:H66"/>
   <sortState ref="B7:H45">
     <sortCondition ref="D6:D45"/>
   </sortState>
@@ -737,7 +740,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2208,61 +2211,112 @@
     </row>
     <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="28"/>
+      <c r="B63" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="30">
+        <v>43299</v>
+      </c>
+      <c r="E63" s="27">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F63" s="28">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="G63" s="22">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H63" s="22">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="25">
-        <f>SUM(G7:G63)</f>
-        <v>139.5</v>
-      </c>
-      <c r="H64" s="26"/>
+      <c r="B64" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="30">
+        <v>43300</v>
+      </c>
+      <c r="E64" s="27">
+        <v>0.375</v>
+      </c>
+      <c r="F64" s="28">
+        <v>0.5625</v>
+      </c>
+      <c r="G64" s="22">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H64" s="22">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>29</v>
+      </c>
     </row>
     <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="3"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
+      <c r="B65" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" s="30">
+        <v>43300</v>
+      </c>
+      <c r="E65" s="27">
+        <v>0.6875</v>
+      </c>
+      <c r="F65" s="28">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G65" s="22">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>1</v>
+      </c>
+      <c r="H65" s="22">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>29</v>
+      </c>
     </row>
     <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="3"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="22">
+        <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="22">
+        <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="3"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
+      <c r="B67" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="25">
+        <f>SUM(G7:G66)</f>
+        <v>148.5</v>
+      </c>
+      <c r="H67" s="26"/>
     </row>
     <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>

--- a/Dokumente/Zeiterfassung/Teuchtmann.xlsx
+++ b/Dokumente/Zeiterfassung/Teuchtmann.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
   <si>
     <t>GESAMT</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>Reports für Projekte und Personen als Balkendiagramm</t>
+  </si>
+  <si>
+    <t>Bugs in der Darstellung der Reports gefixt</t>
   </si>
 </sst>
 </file>
@@ -740,7 +743,7 @@
   <dimension ref="A2:H230"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,18 +2292,28 @@
     </row>
     <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="28"/>
+      <c r="B66" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="30">
+        <v>43300</v>
+      </c>
+      <c r="E66" s="27">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F66" s="28">
+        <v>0.875</v>
+      </c>
       <c r="G66" s="22">
         <f>(Tabelle35[[#This Row],[bis]]*24)-(Tabelle35[[#This Row],[von]]*24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="22">
         <f>WEEKNUM(Tabelle35[[#This Row],[Datum]],2)</f>
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2314,7 +2327,7 @@
       <c r="F67" s="23"/>
       <c r="G67" s="25">
         <f>SUM(G7:G66)</f>
-        <v>148.5</v>
+        <v>149.5</v>
       </c>
       <c r="H67" s="26"/>
     </row>
